--- a/logs.xlsx
+++ b/logs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="tekkwang1996@gmail.com" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mtlmh0304@gmail.com" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="yygoh010@mymail.sim.edu.sg" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8522,7 +8522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8580,21 +8580,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Huawei extradition battle: Meng Wanzhou and her narrow flight path to freedom</t>
+          <t>Registrations Open for Micro-Credential Courses scheduled between
+ 24 Aug - 3 Sep</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">"South China Morning Post" &lt;news@e.scmp.com&gt; </t>
+          <t>noreply_simge@notice.sim.edu.sg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The final scheduled phase of the tech executive’s extradition fight is about to begin in Canada, carrying the prospect of release – or a US trial. But nothing has been simple about the case and a wild-card possibility exists: could a deal be struck outside the court? - South China Morning Post, SCMP - The final scheduled phase of the tech executive’s extradition fight is about to begin in Canada, carrying the prospect of release – or a US trial. But nothing has been simple about the case and a wild-card possibility exists: could a deal be struck outside the court?  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=1]  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=2] CHINA AT A GLANCE [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=3]Wednesday 4th August, 2021 Diplomacy Huawei extradition battle: Meng Wanzhou and her narrow flight path to freedom [https://www.scmp.com/news/china/diplomacy/article/3143580/trump-card-wild-card-and-meng-wanzhous-narrow-flight-path?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143786&amp;tc=5]4 Aug, 2021 - 09:15 amThe final scheduled phase of the tech executive’s extradition fight is about to begin in Canada, carrying the prospect of release – or a US trial. But nothing has been simple about the case and a wild-card possibility exists: could a deal be struck outside the court?   [https://www.scmp.com/news/china/military/article/3143786/south-china-sea-british-warships-didnt-sail-near-chinese?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143742&amp;tc=6]Military British warships ‘didn’t sail near’ artificial islands in South China Sea [https://www.scmp.com/news/china/military/article/3143786/south-china-sea-british-warships-didnt-sail-near-chinese?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143742&amp;tc=7]4 Aug, 2021 - 04:59 pm Diplomacy ‘Biggest troublemaker’: Beijing snipes at US amid Asean South China Sea talks [https://www.scmp.com/news/china/diplomacy/article/3143742/beijing-and-aseans-long-awaited-south-china-sea-code-conduct?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143651&amp;tc=9]4 Aug, 2021 - 04:14 pm  [https://www.scmp.com/economy/china-economy/article/3143651/chinas-economy-downshifts-slower-growth-path-focus-turns?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143697&amp;tc=10]China Economy ‘China’s tectonic U-turn’: Beijing moves away from rapid economic growth [https://www.scmp.com/economy/china-economy/article/3143651/chinas-economy-downshifts-slower-growth-path-focus-turns?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143697&amp;tc=11]4 Aug, 2021 - 08:41 am  [https://www.scmp.com/news/china/science/article/3143697/can-data-science-help-fight-terrorism-china-based-research-team?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143755&amp;tc=12]Science Can data help fight terrorism? This China-based researcher thinks so [https://www.scmp.com/news/china/science/article/3143697/can-data-science-help-fight-terrorism-china-based-research-team?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143755&amp;tc=13]3 Aug, 2021 - 11:02 pm  [https://www.scmp.com/news/china/science/article/3143755/coronavirus-china-reports-71-new-local-cases-pressure-builds?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143674&amp;tc=14]Science China reports 71 local Covid-19 cases as pressure builds for officials [https://www.scmp.com/news/china/science/article/3143755/coronavirus-china-reports-71-new-local-cases-pressure-builds?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143674&amp;tc=15]4 Aug, 2021 - 02:36 pm China Economy Nanjing Delta outbreak ‘grim’ news for China’s summer travel market [https://www.scmp.com/economy/china-economy/article/3143674/coronavirus-nanjing-delta-outbreak-threatens-chinas-summer?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143704&amp;tc=17]4 Aug, 2021 - 08:56 am  [https://www.scmp.com/news/china/politics/article/3143704/china-floods-why-did-death-toll-rise-so-sharply-after-three?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143721&amp;tc=18]Politics China floods death toll ‘likely to rise further’ over coming weeks [https://www.scmp.com/news/china/politics/article/3143704/china-floods-why-did-death-toll-rise-so-sharply-after-three?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143721&amp;tc=19]4 Aug, 2021 - 11:25 am  [https://www.scmp.com/news/china/diplomacy/article/3143721/china-protests-against-bbcs-statement-treatment-reporters?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143653&amp;tc=20]Diplomacy China protests against BBC’s statement on treatment of journalists in Henan [https://www.scmp.com/news/china/diplomacy/article/3143721/china-protests-against-bbcs-statement-treatment-reporters?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143653&amp;tc=21]4 Aug, 2021 - 05:03 am  [https://www.scmp.com/news/people-culture/china-personalities/article/3143653/tokyo-olympics-58-year-old-table-tennis?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143754&amp;tc=22]China Personalities Oldest table tennis player at Tokyo Olympics dubbed ‘Shanghai auntie’ [https://www.scmp.com/news/people-culture/china-personalities/article/3143653/tokyo-olympics-58-year-old-table-tennis?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143754&amp;tc=23]4 Aug, 2021 - 09:26 am  [https://www.scmp.com/tech/big-tech/article/3143754/chinas-video-game-crackdown-state-backed-industry-group-plays-down?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=24]Big Tech Gaming is good for society and regulations are narrow, industry group says [https://www.scmp.com/tech/big-tech/article/3143754/chinas-video-game-crackdown-state-backed-industry-group-plays-down?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=25]4 Aug, 2021 - 02:02 pm Sign up for our other newsletters [http://www.scmp.com/newsletter?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=26] From Lifestyle to Business, from local to regional, from breaking news to daily digests never miss a story. Browse our newsletters  SIGN UP NOW [http://www.scmp.com/newsletter?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=27] Explore the latest Olympic updates [https://www.scmp.com/tokyo-olympics?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=28]  [https://www.scmp.com/tokyo-olympics?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210804&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=29]STAY CONNECTED
-This email was sent to  mtlmh0304@gmail.com [mailto:mtlmh0304@gmail.com]
-unsubscribe from this list https://southchinamorningpost.cmail19.com/t/t-u-cfhlkt-yhdydldith-ji/      update subscription preferences https://southchinamorningpost.updatemyprofile.com/t-cfhlkt-B5A1A5E1-yhdydldith-jd
-South China Morning Post Publishers Ltd · 19/F Tower 1 · 1 Matheson Street · Hong Kong · Hong Kong
-Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved.</t>
+          <t>Dear GOH YONG YU, The following Micro-Credential Courses are scheduled between 24 Aug – 3 Sep 2021, registrations are now open. All courses are conducted physically (in-person ) on SIM Campus, unless otherwise advised. You will be notified on course status and delivery mode (either as in-person class or virtual class) by email confirmation (about 1 week) prior course starts.  Students who have concerns may wish to cancel their place at that point without making course fee payment. All micro-credential courses are course fee payable. 1)      Ethical Hacking (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/ethical-hacking/ Level 1 – 26 Aug (Thu), 12.00pm – 3.00pm Level 2 – 26 Aug (Thu), 3.30pm – 6.30pm Level 3 – 27 Aug (Fri), 12.00pm – 3.00pm Level 4 – 27 Aug (Fri), 3.30pm – 6.30pm Level 5 – 30 Aug (Mon), 12.00pm – 3.00pm 2) R Programming for Data Analysis (Levels 1-5) (Course Fee : S$32.10 per level, including GST) . https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/r-programming-for-data-analysis/ Level 1 – 26 Aug (Thu), 12.00pm – 3.00pm Level 2 – 30 Aug (Mon), 12.00pm – 3.00pm Level 3 – 1 Sep (Wed), 12.00pm – 3.00pm Level 4 – 2 Sep (Thu), 12.00pm – 3.00pm Level 5 – 3 Sep (Fri), 12.00pm – 3.00pm 3)      Essentials of IDEA Audit &amp; Data Analysis Software (Course Fee : S$64.20 for 6 hours workshop, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/it-auditing-using-idea-software/ 24 Aug (Tue), 12.00pm – 6.30pm  (6 hrs ) 4)      Best Practices in Action Communications (Course Fee : S$128.40, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/best-practices-in-action-communications/ 24 – 26 Aug (Tue - Thu), 9.00am – 5.00pm (daily) Do note that each course has limited capacity, hence, registration will be closed once capacity is reached. To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro-Credentials. Select course in drop-down box – EHack Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g EHack Level 2). For details on course outline, registration opening dates, etc, please go to: -- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt;  click on Catalogue of Micro-credentials Courses &gt; Select any course title &gt; Click at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses in the upcoming month/s. For enquiries, please email CMC@sim.edu.sg Regards, SIM Global Education Centre for Micro-Credentials This is a system generated message. Do not reply to this email.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8604,7 +8601,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Suspicious</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -8614,7 +8611,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8624,25 +8621,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>96.0%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Singtel. Your latest bill for August 2021, Account No. 74027334 is
- ready for viewing.</t>
+          <t>Upcoming Events</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>billalert@singtel.com</t>
+          <t>sim@csm.symplicity.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hello Liang Minghao, You can now view your latest Singtel bill, dated 06 Aug 2021. The total due for this bill is $40.35 due on 20 Aug 2021. Scan this QR to pay Pay with Singtel Dash to get FREE 1GB Local Data. Find out more at www.dash.com.sg. 1)  Click here to view your bill on My Singtel app, or 2)  Log on to My Account to view your bill details. You can pay your bill conveniently via My Singtel app, Singtel My Account, Dash, PayNow, AXS, SAM, Internet banking, at SingPost or 7-Eleven. For a detailed explanation on your bill, click here . If you have any questions about your bill or login ID, please chat with us on WhatsApp at help.singtel.com/chat . Please update us if there are changes to your personal particulars. You can update your billing address here and your email and contact number here . Thank you for choosing Singtel as your preferred communications partner. (This is an auto-generated email. Please do not reply directly to this email.) ***** DISCLAIMER ***** This email and any attachments thereto are intended for the sole use of the recipient(s) named above and may contain information that is confidential and/or proprietary to the Singtel Group. Any use of the information contained herein (including, but not limited to, total or partial reproduction, communication, or dissemination in any form) by persons other than the intended recipient(s) is prohibited. If you have received this email in error, please notify the sender immediately and delete it.</t>
+          <t>[body]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8652,7 +8648,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Suspicious</t>
+          <t>Non-Phishing</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -8662,7 +8658,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phishing</t>
+          <t>Non-Phishing</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8679,28 +8675,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>British warships ‘didn’t sail near’ artificial islands in South China Sea</t>
+          <t>Explore New Horizons with Student Development!</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">"South China Morning Post" &lt;news@e.scmp.com&gt; </t>
+          <t>noreply_simge@notice.sim.edu.sg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HMS Queen Elizabeth avoided direct challenge to Beijing’s territorial claims in the contested waters. - South China Morning Post, SCMP - HMS Queen Elizabeth avoided direct challenge to Beijing’s territorial claims in the contested waters.  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=1]  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=2]Wednesday 4th August, 2021 Latest: Coronavirus death toll, infections and vaccinations [https://www.scmp.com/coronavirus?src=stats_widget]
-199,431,074
-Confirmed Covid-19 cases
-4,241,544
-total deaths
-4,254,062,957
-total vaccinated
-CasesDeathsUnited States35,189,465614,120India31,726,507425,195Brazil19,953,501557,223Russia6,251,953158,263France6,242,569112,184  Sources: Johns Hopkins University, WHO, Our World in Data, health authorities [https://www.scmp.com/coronavirus?src=stats_widget&amp;utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=3] Last Updated: 4 Aug, 05:31AM [https://www.scmp.com/coronavirus?src=stats_widget&amp;utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=4]  Latest on Coronavirus [https://www.scmp.com/topics/coronavirus-outbreak?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=6]China British warships ‘didn’t sail near’ artificial islands in South China Sea [https://www.scmp.com/news/china/military/article/3143786/south-china-sea-british-warships-didnt-sail-near-chinese?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143755&amp;tc=7]4 Aug, 2021 - 04:59 pmHMS Queen Elizabeth avoided direct challenge to Beijing’s territorial claims in the contested waters.   [https://www.scmp.com/news/china/science/article/3143755/coronavirus-china-reports-71-new-local-cases-pressure-builds?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143740&amp;tc=8]China China reports 71 local Covid-19 cases as pressure builds for officials [https://www.scmp.com/news/china/science/article/3143755/coronavirus-china-reports-71-new-local-cases-pressure-builds?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143740&amp;tc=9]4 Aug, 2021 - 02:36 pm Health &amp; Environment Construction worker case probe threatens Hong Kong’s zero-infection streak [https://www.scmp.com/news/hong-kong/health-environment/article/3143740/coronavirus-hong-kong-zero-infection-streak?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143779&amp;tc=11]4 Aug, 2021 - 02:48 pmFeatured Podcast  [https://www.scmp.com/podcasts/inside-china/3142603/reporting-flood-ravaged-henan-short-videos-crowd-sourced-spreadsheets?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=12] Reporting from flood-ravaged Henan; short videos &amp; crowd-sourced spreadsheets to the rescue [https://www.scmp.com/podcasts/inside-china/3142603/reporting-flood-ravaged-henan-short-videos-crowd-sourced-spreadsheets?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=13]Video Of The Day  Covid-19 returns to China’s Wuhan as Delta variant spreads to 10 provinces [https://www.scmp.com/video/coronavirus/3143773/covid-19-returns-chinas-wuhan-delta-variant-spreads-10-provinces?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=15]OPINIONMacroscopeJoe Zhang Why China’s cram school crackdown is a welcome and needed reform [https://www.scmp.com/comment/opinion/article/3143670/why-chinas-cram-school-crackdown-welcome-and-needed-reform?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143610&amp;tc=16]  [https://www.scmp.com/comment/opinion/article/3143670/why-chinas-cram-school-crackdown-welcome-and-needed-reform?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143610&amp;tc=17]Michael B. Wong In Hong Kong’s Olympic glory, a glimpse of a hopeful future [https://www.scmp.com/comment/opinion/article/3143610/hong-kongs-olympic-glory-glimpse-hopeful-new-future?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=18]  [https://www.scmp.com/comment/opinion/article/3143610/hong-kongs-olympic-glory-glimpse-hopeful-new-future?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=19]China  [https://www.scmp.com/tech/big-tech/article/3143779/tencent-cuts-kids-playing-time-flagship-game-honour-kings-appease?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143742&amp;tc=20]Tech Tencent narrows kids’ playing time on flagship game Honour of Kings [https://www.scmp.com/tech/big-tech/article/3143779/tencent-cuts-kids-playing-time-flagship-game-honour-kings-appease?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143742&amp;tc=21]Diplomacy ‘Biggest troublemaker’: Beijing snipes at US amid Asean South China Sea talks [https://www.scmp.com/news/china/diplomacy/article/3143742/beijing-and-aseans-long-awaited-south-china-sea-code-conduct?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143704&amp;tc=22]Politics China floods death toll ‘likely to rise further’ over coming weeks [https://www.scmp.com/news/china/politics/article/3143704/china-floods-why-did-death-toll-rise-so-sharply-after-three?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143775&amp;tc=23]Hong Kong  [https://www.scmp.com/news/hong-kong/hong-kong-economy/article/3143775/hong-kongs-e-voucher-spending-spree-accompanied?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143762&amp;tc=24]Hong Kong economy Complaints accompany Hong Kong’s e-voucher spending spree: watchdog [https://www.scmp.com/news/hong-kong/hong-kong-economy/article/3143775/hong-kongs-e-voucher-spending-spree-accompanied?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143762&amp;tc=25]Politics Virtual Tiananmen museum crowdfunded by Hong Kong vigil organiser launches [https://www.scmp.com/news/hong-kong/politics/article/3143762/virtual-tiananmen-square-museum-crowdfunded-hong-kong-vigil?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143710&amp;tc=26]Politics How Hong Kong’s largest teachers’ union met its decline [https://www.scmp.com/news/hong-kong/politics/article/3143710/how-did-hong-kongs-largest-teachers-union-enrage-beijing?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143747&amp;tc=27]Business  [https://www.scmp.com/business/companies/article/3143772/dhl-express-aims-deploy-worlds-first-all-electric-air-courier?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143734&amp;tc=28]Companies DHL orders 12 all-electric cargo planes as part of sustainability drive [https://www.scmp.com/business/companies/article/3143772/dhl-express-aims-deploy-worlds-first-all-electric-air-courier?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143734&amp;tc=29]Markets Hang Seng Index climbs as Tencent rebounds with policy-friendly stocks [https://www.scmp.com/business/markets/article/3143734/hong-kong-stocks-advance-tencent-recovers-panic-selling-and?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143612&amp;tc=30]Companies Nayuki says no food safety issues in outlets after report triggers backlash [https://www.scmp.com/business/companies/article/3143766/teahouse-chain-nayuki-says-regulators-find-no-cockroaches-or?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=31]Asia Malaysian Prime Minister Muhyiddin Yassin to prove majority in parliament [https://www.scmp.com/week-asia/politics/article/3143747/malaysian-politics-prime-minister-muhyiddin-yassin-says-will?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143715&amp;tc=32] Chinese money finds its way into booming Indian tech scene [https://www.scmp.com/week-asia/economics/article/3143715/stealth-investment-chinese-money-finds-its-way-indian-tech-ipos?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143729&amp;tc=33]Comment Why China’s cram school crackdown is a welcome and needed reform [https://www.scmp.com/comment/opinion/article/3143670/why-chinas-cram-school-crackdown-welcome-and-needed-reform?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143610&amp;tc=34] In Hong Kong’s Olympic glory, a glimpse of a hopeful future [https://www.scmp.com/comment/opinion/article/3143610/hong-kongs-olympic-glory-glimpse-hopeful-new-future?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=35]Lifestyle Broadway without the cliché: Ariana DeBose on Apple TV+ musical [https://www.scmp.com/lifestyle/entertainment/article/3143612/hamilton-netflixs-prom-west-side-story-movie-steven?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143603&amp;tc=36] Where to go for 2am dim sum, and a G&amp;T with a view over Hong Kong [https://www.scmp.com/lifestyle/food-drink/article/3143603/vegetarian-dosa-early-morning-dim-sum-thai-food-takes-you?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143727&amp;tc=37]Culture Nevertheless midseason recap: Netflix K-drama tackles young love [https://www.scmp.com/lifestyle/k-pop/k-drama/article/3143736/k-drama-midseason-recap-nevertheless-netflix-romance?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143630&amp;tc=38] K-pop must-listen releases in August from Blackpink, TXT and more [https://www.scmp.com/lifestyle/k-pop/bands/article/3143630/k-pop-must-listen-releases-august-2021-blackpink-ncts-ten-red?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143754&amp;tc=39]Sport Tokyo Olympics: Sarah Lee through to keirin quarter-finals [https://www.scmp.com/sport/hong-kong/article/3143727/tokyo-olympics-hong-kong-athletes-action-golf-cycling-china-and?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143759&amp;tc=40] China’s Gu Hong moves into gold medal fight as she dispatches USA challenge [https://www.scmp.com/sport/china/article/3143759/tokyo-olympics-chinas-gu-hong-moves-gold-medal-fight-she-dispatches-usa?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143736&amp;tc=41]This Week In Asia Cambodian workers flee Thailand’s Covid-19 surge, overwhelming border facilities [https://www.scmp.com/week-asia/people/article/3143729/cambodian-workers-flee-thailands-coronavirus-surge-exodus?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143712&amp;tc=42] US diver Jordan Windle’s journey from Cambodian orphanage to Olympics [https://www.scmp.com/week-asia/people/article/3143712/how-us-olympic-diver-jordan-windle-went-cambodian-orphanage-tokyo?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210804&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143709&amp;tc=43]STAY CONNECTED
-This email was sent to  mtlmh0304@gmail.com [mailto:mtlmh0304@gmail.com]
-unsubscribe from this list https://southchinamorningpost.cmail19.com/t/t-u-cfdhuk-yhdyiktukh-il/      update subscription preferences https://southchinamorningpost.updatemyprofile.com/t-cfdhuk-1D7765A4-yhdyiktukh-ir
-South China Morning Post Publishers Ltd · 19/F Tower 1 · 1 Matheson Street · Hong Kong · Hong Kong
-Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved.</t>
+          <t>Dear GOH YONG YU, The following events/activities may interest you: 1. SIM String Ensemble Auditions 2021 2. SIM Photography Club Recruitment 3. SIM Board Games Society Games Session 4. SIM Guitar Club Recruitment 5. SIM Students’ Christian Fellowship (SCF) ‘Welcome Tea’ 2021 SIM SCF will be having its Welcome Tea on 11th August (Wednesday), at 7.30 pm via Zoom!  Do join us to get to know what SIMSCF is about and for a fun time of meeting new people! Date : 11 th August 2021 Time : 7.30pm (SGT) Platform : Zoom Registration : https://tinyurl.com/cfwelcometea21 6. SIM Innovation and Networking Society (IONS) Ambassadors Recruitment 2021 Want to gain some industrial experience such as working in a team, pitching ideas as well as presenting to a panel? Join our 4-month IONS ambassador program! By being an ambassador, you will be tackling real-world problems, gaining technical experiences as well as getting to work with mentors. Come join the fun and be an IONS ambassador! Find us on @sim.ions or Dm us for any queries. Sign up ends 15th August! Registration link              : https://survey.sim.edu.sg/simge/index.php/119563/lang-en 7. MCSIM MCdeka Race Calling all SIM students, Malaysia's 64th National Day is just around the corner! Want to learn more about Malaysia’s history and culture? Come and celebrate this happiness with us online! Do not hesitate to join us now! For those who have participated, you have a chance to win a prize from a total prize pool of $70 Grab vouchers! Kindly register through the link below before 27th August, 12pm! https://tinyurl.com/MCdeka2021 The event details are as follows: Date : 31st August 2021 Time : 8pm to 10pm (2 hours) Platform: Zoom #mcsimsg Brought to you by the Malaysian Community in SIM (MCSIM) 8. InSIMerdeka: Aksara 2021 InSIM is proud to present its first ever online no-Zoom event in InSIMERDEKA 2021: Project Aksara. This event is open to all Indonesian students in Singapore (physical kit and online kit) and all SIM students in Indonesia (online kits only). Date: 21 August 2021, 16.00-19.00 SGT (Time Machine Key will be released on our instagram) Registration opens today until August 3 (physical kits, limited slots) and August 19 (online kits) . Contact our official LINE account ( @244LOXVF) to register! Brought to you by the Indonesian Community in SIM (InSIM) 9. SIM Esprimere Chat with Us! Curious about what we do here in Esprimere? Come by and have fun with us! Take this chance to interact with our members and coaches, as well as ask us about anything you'd want to know more about our club! LAI LAI NO SKET SKET just come as you are and let's meet! Event will be through Zoom  on the 5th of August 2021, at 6pm to 8pm! :) 10. SIM Esprimere Singing Club Auditions Ever had an interest in singing, instruments, music producing or even videography? We want you! Our much-anticipated audition is here again! Our auditions will be held from 16-20th of August through Zoom.  Prepare the first verse and first chorus of 2 songs; they can be of different languages and genres, but do present at least one pop song! If you want to send us a video submission, then you're only required to sing 1 song through Zoom! Do come and join us! Sign up using the form in the poster by 8 August 2359! DM us at @esprimeresings or email us at singing@mymail.sim.edu.sg if you have any enquiries. See you there! To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8710,17 +8695,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Suspicious</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>'20210731160040879Strings.png'</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8737,18 +8722,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Complimentary PRISM+ Monitor or S$180 CapitaVouchers with American Expres</t>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>"KrisFlyer" &lt;singaporeair@email.singaporeair.com&gt;</t>
+          <t>sim@csm.symplicity.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Complimentary PRISM+ Monitor or S$180 CapitaVouchers with American Express KrisFlyer Member Exclusive KrisFlyer Member Exclusive No images? View this online Dear Mr Liang KrisFlyer Member Exclusive Receive a complimentary PRISM+ X240 Monitor and 5,000 KrisFlyer miles or S$180 CapitaVouchers when you apply and spend with the American Express ® Singapore Airlines KrisFlyer Credit Card from now till 30 Sep 2021. Click here to apply now KRISFLYER MEMBER EXCLUSIVE BONUS For new to American Express applicants: Choose between: Complimentary PRISM+ X240 Monitor (worth up to S$369) and 5,000 KrisFlyer miles or S$180 CapitaVouchers when you make a min. spend of S$500 in the first month of Card approval. For Existing American Express Card Members applying for another Card: S$100 CapitaVouchers when you make a min. spend of S$500 in the first month of Card approval. WELCOME BONUS 5,000 KrisFlyer miles when you make the first transaction of S$1 on your Card. For first-time Singapore Airlines Credit Card applicants only. SPEND BONUS 5,000 KrisFlyer miles when you make a min. spend of S$3,000 in the first 3 months of Card approval. EARN RATE 3,300 KrisFlyer miles based on S$3,000 spend above (based on 1.1 KrisFlyer miles per S$1 spent in local currency). Click here to apply now Terms and Conditions apply. Benefit Highlights There’s no better way to kickstart your journey with American Express with a first year annual fee waiver and hassle-free conversion with no transfer fee. First Year Fee Waiver Annual Fee of S$176.55 (inclusive of GST) waived for the first year. Hassle-free Conversion All KrisFlyer miles earned with your Card are credited directly into your KrisFlyer account, with no transfer fee . Refer a Friend Bonus S$80 Statement Credit for each successful friend referral. KrisFlyer Ascend Upgrade Bonus Meet the membership and spend criteria to be eligible for the KrisFlyer Ascend Upgrade Offer of 12,000 KrisFlyer miles or S$150 Statement Credit. Click here to apply now Terms and Conditions apply. Looking for more privileges? Apply for the American Express® 
-Singapore Airlines KrisFlyer Ascend Credit Card and receive a complimentary PRISM+ Q32 TV (worth up to S$699) or S$250 CapitaVouchers. Click to learn more Yours Sincerely, Christina Fong Director, Head of Acquisition Consumer Cards American Express Singapore Renee Chong Manager, Loyalty Marketing Singapore Airlines The American Express ® Singapore Airlines KrisFlyer Credit Card Click here for KrisFlyer Member Exclusive Promo Terms and Conditions Click here for Card Member Agreement and Benefit Terms and Conditions This email has been sent to you by Singapore Airlines. Your details have not been disclosed to Amex. Privacy Statement | Unsubscribe This is an automatically generated message. Please do not reply to this address. © 2021 Singapore Airlines. Singapore Co. Reg. No. 197200078R</t>
+          <t>-
+Powered By Symplicity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8778,25 +8764,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>99.9999999983%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Looking for a 'full-filling' getaway?</t>
+          <t>Reminder on Attendance Requirement</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trip.com &lt;Trip.com@newsletter.trip.com&gt;</t>
+          <t>noreply_simge@notice.sim.edu.sg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Enjoy perks such as dinner for 2, afternoon tea &amp; complimentary Prosecco! Flights Hotels Trains Looking for a 'full-filling' Singapoliday? We got you covered with exciting perks such as dinner for 2, afternoon tea and complimentary Prosecco ! What's best? Enjoy S$50 OFF with " DBS50H2 " on these hotels using your DBS/POSB card! Plus, these deals are eligible for booking with your SingapoRediscovers Vouchers which means you can enjoy up to S$100 OFF these staycations!
-What are you waiting for? #BookNowTripLater Hotels DBS10H2 $10 OFF min. spend $150 Hotels DBS50H2 $50 OFF min. spend $400 View All Deals Local Getaway Duxton Reserve Singapore, Autograph Collection ★ Full-filling Getaway Shophouse Room 1-night stay From S$552nett • Breakfast for 2 • Chinese Dinner Set (5 dishes) for 2 • Cocktails for 2 View Deal Four Seasons Hotel Singapore ★ Full-filling Getaway Deluxe Room 1-night stay From S$403nett • Breakfast for 2 • Personalised Welcome Amenity • 1 bottle of Prosecco • 3-course Dinner for 2 • 12pm Early check-in • 6pm Late check-out View Deal Pan Pacific Serviced Suites Beach Road ★ Full-filling Getaway One Bedroom Deluxe Suite 1-night stay From S$300nett • Breakfast for 2 • Afternoon Tea for 2 for stays on Tue - Fri (blackout dates apply) • Complimentary parking (limited to 2 tickets per booking) • Pan Pacific Cares Pack • Access to swimming pool &amp; fitness centre (advance reservation required) • Daily housekeeping service, excluding Sun and Public Holidays View Deal PARKROYAL COLLECTION Pickering, Singapore ★ Full-filling Getaway Urban Room 1-night stay From S$295nett • Breakfast for 2 • Afternoon Tea for 2 for stays on Mon - Thu (blackout dates apply) • Complimentary parking • Pan Pacific Cares Pack View Deal View All Deals About Trip.com Trip.com is a leading international online one-stop travel service provider, available in 21 languages across 31 countries and regions. Our platform combines over 1.4 million hotels in 200 countries and regions, 2 million flights connecting more than 5,000 cities, and world-class 24/7 English language customer service as well as additional centres in Edinburgh, Tokyo and Seoul, ‘Creating the best travel experience’ for our millions of customers worldwide. Get our award-winning app to unlock cheaper prices! Access deals too cheap to publish on our website Earn bonus Trip Coins on every booking Plan and book your next trip wherever you are Download Now About Us | Privacy Statement | Terms &amp; Conditions Advertised prices, your member tier, Trip Coin amounts, and Trip Coin exchange rates are correct at time of publication and are subject to change without notice. All times listed in this email are GMT+8 unless otherwise noted. If you’d prefer not to receive this type of promotional emails from Trip.com, you can adjust notification preferences or unsubscribe . This is an automatically generated email. Please do not respond to this message. Copyright © 1999-2021 Trip.com. All rights reserved</t>
+          <t>Date: 30/07/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 87.5% as at 30/07/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8806,7 +8791,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Suspicious</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8816,7 +8801,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -8826,28 +8811,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>74.0%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Get the Mobile app</t>
+          <t>Reminder on Attendance Requirement</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Termius &lt;no-reply@termius.com&gt;</t>
+          <t>noreply_simge@notice.sim.edu.sg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Get the Mobile app Get Termius on all your devices and keep everything in sync. Regards, The Termius Team Not loving this email? Unsubscribe from offers &amp; announcements. You'll still receive critical Termius account &amp; security emails. Copyright ©
-                                                                    2021
-                                                                    Termius Corporation,
-                                                                    All rights
-                                                                    reserved.</t>
+          <t>Date: 30/07/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 87.5% as at 30/07/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -8857,7 +8838,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Suspicious</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -8867,7 +8848,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -8877,61 +8858,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>97.4185205791%</t>
+          <t>74.0%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>New Scholarships, Early Action Resources, Gorilla Glue CEO</t>
+          <t>New and Trending Jobs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UVA Darden School of Business &lt;darden@virginia.edu&gt;</t>
+          <t>sim@csm.symplicity.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>July Admissions Newsletter
-New Breakthrough Scholars Program to Prepare Diverse Leaders in Asset Management Darden recently shared an exciting new competitive scholarship initiative designed to foster a new generation of diverse leadership in private equity, venture capital, hedge funds and other areas of asset management. The new program is just one of many prestigious scholarships available to the Class of 2024.
-READ MORE Former Airbnb Global Head of Diversity and Belonging Returns to Darden Faculty In addition to rejoining the faculty at UVA, Melissa Thomas-Hunt will help lead a new initiative to support research in the areas of diversity, equity, inclusion, connection and belonging.
-READ MORE Darden Grads Named to 'MBAs to Watch' Poets &amp; Quants announced its 2021 list of MBAs to Watch, including two members of the Class of 2021 ⁠— Prateek Sinha (MBA '21) and Harsha Gummagatta (MBA '21).
-READ MORE Mom MBAs Share Advice, Tips Sarah Costa (MBA '21), Kat Jorgensen (MBA '21) and Jungae "Jess" Kim-Schmid (Class of 2022) have had remarkable Darden experiences ⁠— being a mom while also pursuing Darden's Full-Time MBA.
-READ MORE Podcast: Application Tips Playlist The Experience Darden podcast recently launched a playlist of 16 mini-episodes all about the Darden application process. 
-LISTEN Roundup of Early Action Resources Take a look at a few of the resources for Early Action applicants, including information about open interviews, recent webinars and the difference between binding and non-binding application paths.
-READ MORE 20 Questions With The Gorilla Glue Co. CEO Darden alumnus Mark Mercurio (MBA '04) spent 10 years at Procter &amp; Gamble before rising through the ranks at The Gorilla Glue Co. for five years to become the company's president and CEO in 2019.
-READ MORE UPCOMING VIRTUAL EVENTS
-Webinars
-All About the Application:
-For Re-Applicants
-3 August | Register All About the Application: Interviews
-5 August | Register All About the Application: Short Answer Questions
-10 August | Register Military to MBA: Darden Military Association Admissions Panel
-11 August | Register Part-Time MBA Application Launch
-11 August | Register Don't Stress, You've Got This! Early Action Application Hotline
-31 August | Register Info Session: 2021 Darden Diversity Conference
-1 September | Register Other Events
-Consortium Member School Webinar
-5 August | Register Darden Shanghai Info Session
-8 August | Register Darden Brazil Alumni Virtual Event for Prospective Students 
-10 August | Register The MBA Connection: Application Tips Panel
-11 August | Register Virtual Forté MBA Forum
-19 August | Register Darden Graduate Women in Business Q&amp;A
-24 August | Register 31 August | Register Darden Military Association Q&amp;A
-24 August | Register 31 August | Register Application Deadlines
-Early Action | 9 September
-Round 1 | 6 October
-Round 2 | 5 January
-Round 3 | 6 April
-Connect with us.
-UNIVERSITY OF VIRGINIA DARDEN SCHOOL OF BUSINESS 100 Darden Boulevard
-Charlottesville, VA 22903 USA
-+1434-924-7281
-CHARLOTTESVILLE  |  WASHINGTON D.C. AREA  |  SAN FRANCISCO  |  SHANGHAI
-This email was sent to mtlmh0304@gmail.com by UVA Darden School of Business.
-Unsubscribe from Newsletter.</t>
+          <t>jobs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8968,21 +8912,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Beijing to Berlin: clarify warship’s intentions in South China Sea</t>
+          <t>Advisory from the SIM Student Conduct Secretariat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">"South China Morning Post" &lt;news@e.scmp.com&gt; </t>
+          <t>noreply_simge@notice.sim.edu.sg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The frigate Bayern arrived in the Indo-Pacific region on Monday with plans to cross the disputed waterway sometime in December. - South China Morning Post, SCMP - The frigate Bayern arrived in the Indo-Pacific region on Monday with plans to cross the disputed waterway sometime in December.  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=1]  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=2] CHINA AT A GLANCE [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=3]Tuesday 3rd August, 2021 Diplomacy Beijing to Berlin: clarify warship’s intentions in South China Sea [https://www.scmp.com/news/china/diplomacy/article/3143613/beijing-berlin-clarify-warships-intentions-south-china-sea-or?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143505&amp;tc=5]3 Aug, 2021 - 01:59 pmThe frigate Bayern arrived in the Indo-Pacific region on Monday with plans to cross the disputed waterway sometime in December.  [http://ib.adnxs.com/clktrb?id=759235]  [https://www.scmp.com/news/china/diplomacy/article/3143505/us-china-relations-beijing-takes-pointers-mao-protracted-power?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143565&amp;tc=6]Diplomacy China takes pointers from Mao in protracted power struggle with US [https://www.scmp.com/news/china/diplomacy/article/3143505/us-china-relations-beijing-takes-pointers-mao-protracted-power?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143565&amp;tc=7]3 Aug, 2021 - 11:18 am  [https://www.scmp.com/news/china/diplomacy/article/3143565/china-engages-mongolia-flurry-talks-wake-us-envoy-wendy?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143617&amp;tc=8]Diplomacy China engages Mongolia in flurry of talks in wake of US envoy Wendy Sherman [https://www.scmp.com/news/china/diplomacy/article/3143565/china-engages-mongolia-flurry-talks-wake-us-envoy-wendy?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143617&amp;tc=9]3 Aug, 2021 - 05:46 am  [https://www.scmp.com/news/china/science/article/3143617/coronavirus-china-reports-61-new-cases-it-tries-contain-growing?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143611&amp;tc=10]Science China records 61 new Covid-19 cases, tries to contain growing outbreak [https://www.scmp.com/news/china/science/article/3143617/coronavirus-china-reports-61-new-cases-it-tries-contain-growing?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143611&amp;tc=11]3 Aug, 2021 - 05:52 pm China Tokyo Olympics: Will China beat Japan (and the US) at their own Games? [https://www.scmp.com/sport/china/article/3143611/tokyo-olympics-will-china-beat-japan-and-us-their-own-games?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143560&amp;tc=13]3 Aug, 2021 - 01:42 pm  [https://www.scmp.com/news/china/science/article/3143560/chinese-sprinter-challenges-gene-theory-olympic-track?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143551&amp;tc=14]Science Chinese sprinter Su Bingtian challenges ‘gene theory’ on Olympic track [https://www.scmp.com/news/china/science/article/3143560/chinese-sprinter-challenges-gene-theory-olympic-track?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143551&amp;tc=15]3 Aug, 2021 - 10:40 am  [https://www.scmp.com/economy/china-economy/article/3143551/why-china-cracked-down-education-and-upended-us70-billion?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143629&amp;tc=16]China Economy Why China cracked down on education, upending a US$70 billion industry [https://www.scmp.com/economy/china-economy/article/3143551/why-china-cracked-down-education-and-upended-us70-billion?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143629&amp;tc=17]3 Aug, 2021 - 01:54 pm  [https://www.scmp.com/news/people-culture/trending-china/article/3143629/kris-wu-scandal-chinas-internet-watchdog-seeks?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143625&amp;tc=18]Trending in China China’s internet watchdog seeks to rein in crazed celebrity fans and stalkers [https://www.scmp.com/news/people-culture/trending-china/article/3143629/kris-wu-scandal-chinas-internet-watchdog-seeks?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143625&amp;tc=19]3 Aug, 2021 - 05:10 pm Policy Chinese newspaper deletes report that called video gaming ‘spiritual opium’ [https://www.scmp.com/tech/policy/article/3143625/chinese-newspaper-deletes-report-called-video-gaming-spiritual-opium?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=21]3 Aug, 2021 - 02:49 pm Sign up for our other newsletters [http://www.scmp.com/newsletter?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=22] From Lifestyle to Business, from local to regional, from breaking news to daily digests never miss a story. Browse our newsletters  SIGN UP NOW [http://www.scmp.com/newsletter?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=23] Explore the latest Olympic updates [https://www.scmp.com/tokyo-olympics?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-china&amp;utm_content=20210803&amp;tpcc=enlz-china&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=24] STAY CONNECTED   [https://twitter.com/scmpnews]
-This email was sent to  mtlmh0304@gmail.com [mailto:mtlmh0304@gmail.com]
-unsubscribe from this list https://southchinamorningpost.cmail19.com/t/t-u-cfoty-yhdydldith-jr/      update subscription preferences https://southchinamorningpost.updatemyprofile.com/t-cfoty-B5A1A5E1-yhdydldith-jy
-South China Morning Post Publishers Ltd · 19/F Tower 1 · 1 Matheson Street · Hong Kong · Hong Kong
-Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved.</t>
+          <t>Dear GOH YONG YU, As we adapt ourselves to the new normal, many aspects of our lives have been ‘digitalised’. Most of us have used online platforms to purchase items such as food, groceries, clothes &amp; even study materials. Anti-Scam Alert While online shopping is fast becoming the preferred option among consumers, we would like to advise all our students to be cautious &amp; discerning when dealing with online vendors/sellers. In Singapore, there has been a rising number of online scam cases ( https://www.police.gov.sg/Media-Room/News?keyword=scam ). Therefore, it is very important that we educate ourselves on how to identify such scams and avoid becoming the next victim. These some resources that you can refer to: https://www.scamalert.sg/ https://www.csa.gov.sg/gosafeonline/go-safe-for-me/homeinternetusers/spot-signs-of-phishing ? Protection from Harassment Online scams are not the only criminal acts that can happen online. Online harassment or abuse is also a rising problem as people spend more time online. Online harassment can come in the form of cyber-bullying, cyber stalking, doxing &amp; flaming. The Protection from Harassment Act (POHA) was introduced in 2014 to deal with all forms of harassment including online harassment. We strongly encourage you to refer to the following resource for more information: https://www.statecourts.gov.sg/cws/FillingForHarassment/Pages/Overview-of-the-Protection-from-Harassment-Act.aspx If you are a victim of online scams or harassment, we strongly encourage you to come forward. You can contact the SIM Student Conduct Secretariat at studentconduct@sim.edu.sg for further advice &amp; assistance. Alternatively, you may also contact the relevant authorities as indicated in the resources which we shared earlier. Everyone has a part to play in preventing crime. Stay alert &amp; look out for one another. As always, please stay healthy &amp; safe. Message brought to you by: SIM Student Conduct Secretariat (A unit within SIM Student Development) This is a system generated message. Do not reply to this email.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -8997,7 +8937,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>'20210728144700893sdev.png'</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -9012,24 +8952,30 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The KrisShop Anniversary Bonanza is here!</t>
+          <t>ISIT307 Quiz 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"KrisFlyer" &lt;singaporeair@email.singaporeair.com&gt;</t>
+          <t>bg lu &lt;lubg9@outlook.com&gt;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The KrisShop Anniversary Bonanza is here! Over 1,500 exciting deals at up to 60% off  ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ Membership No: 8852459843 VIEW ON BROWSER THE KRISSHOP ANNIVERSARY BONANZA THE KRISSHOP ANNIVERSARY BONANZA Dear Mr Liang, Celebrate KrisShop's Anniversary with over 1,500 deals at up to 60% off, or take 20% off regular-priced items with a min. spend of S$250! Receive a limited edition KrisShop-exclusive Batik Label tote bag with a minimum nett spend of S$250. Complete your purchase using promo code AMEXAUG with American Express Cards to enjoy a further S$20 off. What's more, look out for KrisFlyer exclusives and daily surprises, from games to win attractive prizes, to bonus miles promotions and more! Follow KrisShop's Instagram and Facebook pages for exciting giveaways. Continue to earn 1.5 miles per S$1 spend on all KrisShop purchases. Simply log in to KrisShop.com with your KrisFlyer account to start shopping. Terms and Conditions apply. Dear Mr Liang, Celebrate KrisShop's Anniversary with over 1,500 deals at up to 60% off, or take 20% off regular-priced items with a min. spend of S$250! Receive a limited edition KrisShop-exclusive Batik Label tote bag with a minimum nett spend of S$250. Complete your purchase using promo code AMEXAUG with American Express Cards to enjoy a further S$20 off. What's more, look out for KrisFlyer exclusives and daily surprises, from games to win attractive prizes, to bonus miles promotions and more! Follow KrisShop's Instagram and Facebook pages for exciting giveaways. Continue to earn 1.5 miles per S$1 spend on all KrisShop purchases. Simply log in to KrisShop.com with your KrisFlyer account to start shopping. Terms and Conditions apply. SHOP NOW EXCLUSIVE GIFT WITH PURCHASE EXCLUSIVE GIFT WITH PURCHASE BROWSE FROM OVER 1,500 ITEMS AT UP TO 60% OFF BROWSE FROM OVER 1,500 ITEMS AT UP TO 60% OFF PRADA LA FEMME PRADA L’EAU EDT 50ML SGD 120 SGD 48 MOROCCANOIL® TREATMENT ALL HAIR TYPES 50ML SGD 38 SGD 19 CONFETTI SNACKS TWILIGHT ON TANGLIN BUNDLE OF 6 SGD 53 SGD 37.10 BANG &amp; OLUFSEN BEOPLAY E8 3RD GEN EARPHONES SGD 466 SGD 354.21 ERGOWORKS ALL-IN-ONE DESK BIKE SGD 840 SGD 679 PRADA LA FEMME PRADA L’EAU EDT 50ML SGD 120 SGD 48 MOROCCANOIL® TREATMENT ALL HAIR TYPES 50ML SGD 38 SGD 19 CONFETTI SNACKS TWILIGHT ON TANGLIN BUNDLE OF 6 SGD 53 SGD 37.10 BANG &amp; OLUFSEN BEOPLAY E8 3RD GEN EARPHONES SGD 466 SGD 354.21 ERGOWORKS ALL-IN-ONE DESK BIKE SGD 840 SGD 679 MORE DEALS AMERICAN EXPRESS ® CARDS EXCLUSIVE AMERICAN EXPRESS ® CARDS EXCLUSIVE FIND OUT MORE YOU MAY ALSO LIKE YOU MAY ALSO LIKE BEURER IFC 47 FACIAL BRUSH SGD 68 SGD 35 LANEIGE SKIN VEIL BASE DUO NO.40 PURE VIOLET SGD 56 SGD 39.20 TOSCANA MEN'S WELLBEING BRACELET SGD 265 SGD 132.50 AIGNER AVA CROSSBODY BAG SGD 260 SGD 130 SIX 1724 PUKA REED DIFFUSER GIFT SET SGD 45 SGD 27 AKASHI BLUE BLENDED WHISKY 700ML SGD 109 SGD 65.40 BEURER IFC 47 FACIAL BRUSH SGD 68 SGD 35 LANEIGE SKIN VEIL BASE DUO NO.40 PURE VIOLET SGD 56 SGD 39.20 TOSCANA MEN'S WELLBEING BRACELET SGD 265 SGD 132.50 AIGNER AVA CROSSBODY BAG SGD 260 SGD 130 SIX 1724 PUKA REED DIFFUSER GIFT SET SGD 45 SGD 27 AKASHI BLUE BLENDED WHISKY 700ML SGD 109 SGD 65.40 SHOP NOW MORE REASONS TO SHOP ON KRISSHOP.COM MORE REASONS TO SHOP ON KRISSHOP.COM Earn miles Earn 1.5 KrisFlyer miles for every $1 spent with KrisShop. Redeem miles Redeem in full or mix miles and cash to pay for your purchases (minimum 1,000 KrisFlyer miles). Worldwide delivery Collect your purchases on board your next flight or have them delivered directly to your doorstep. Earn miles Earn 1.5 KrisFlyer miles for every $1 spent with KrisShop. Redeem miles Redeem in full or mix miles and cash to pay for your purchases (minimum 1,000 KrisFlyer miles). Worldwide delivery Collect your purchases on board your next flight or have them delivered directly to your doorstep. Download SingaporeAir App Download Kris+ App Download SingaporeAir App Download Kris+ App Follow Privacy Policy Privacy Policy Unsubscribe Unsubscribe © 2021 Singapore Airlines. All Rights Reserved. Singapore Co. Reg. No. 197200078R. This is an automatically generated message. Please do not reply to this address. © 2021 Singapore Airlines. All Rights Reserved. Singapore Co. Reg. No. 197200078R. This is an automatically generated message. Please do not reply to this address.</t>
+          <t>Dear Students
+Below is the link and password to Quiz 1.
+  *   https://moodle.uowplatform.edu.au/mod/quiz/view.php?id=2140496
+  *   Password: HRTG673PK
+  *   Time: 2:00pm - 2:15pm (15mins)
+  *   There is no back button. Once you finish 1 question you need to move to next question. You wouldn't be able to come back to the previous question.
+Dr Lu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -9059,35 +9005,25 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.0%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Beijing to Berlin: clarify warship’s intentions in South China Sea</t>
+          <t>Registrations Open for Micro-Credential Courses scheduled between
+ 17 - 25 August</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">"South China Morning Post" &lt;news@e.scmp.com&gt; </t>
+          <t>noreply_simge@notice.sim.edu.sg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The frigate Bayern arrived in the Indo-Pacific region on Monday with plans to cross the disputed waterway sometime in December. - South China Morning Post, SCMP - The frigate Bayern arrived in the Indo-Pacific region on Monday with plans to cross the disputed waterway sometime in December.  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=1]  [https://www.scmp.com/?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=2]Tuesday 3rd August, 2021 Latest: Coronavirus death toll, infections and vaccinations [https://www.scmp.com/coronavirus?src=stats_widget]
-198,883,249
-Confirmed Covid-19 cases
-4,233,879
-total deaths
-4,213,608,256
-total vaccinated
-CasesDeathsUnited States35,101,600613,603India31,695,958424,773Brazil19,938,358556,834Russia6,230,482157,496France6,210,058112,075  Sources: Johns Hopkins University, WHO, Our World in Data, health authorities [https://www.scmp.com/coronavirus?src=stats_widget&amp;utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=3] Last Updated: 3 Aug, 05:38AM [https://www.scmp.com/coronavirus?src=stats_widget&amp;utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=4]  Latest on Coronavirus [https://www.scmp.com/topics/coronavirus-outbreak?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=6]China Beijing to Berlin: clarify warship’s intentions in South China Sea [https://www.scmp.com/news/china/diplomacy/article/3143613/beijing-berlin-clarify-warships-intentions-south-china-sea-or?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143551&amp;tc=7]3 Aug, 2021 - 01:59 pmThe frigate Bayern arrived in the Indo-Pacific region on Monday with plans to cross the disputed waterway sometime in December.   [https://www.scmp.com/economy/china-economy/article/3143551/why-china-cracked-down-education-and-upended-us70-billion?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143550&amp;tc=8]Economy Why China cracked down on education, upending a US$70 billion industry [https://www.scmp.com/economy/china-economy/article/3143551/why-china-cracked-down-education-and-upended-us70-billion?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143550&amp;tc=9]3 Aug, 2021 - 01:54 pm Hong Kong economy Hong Kong’s new travel rules a ‘relief’ to stranded domestic workers [https://www.scmp.com/news/hong-kong/hong-kong-economy/article/3143550/hong-kongs-revamped-travel-rules-relief-stranded?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143629&amp;tc=11]3 Aug, 2021 - 08:04 amFeatured Podcast  [https://www.scmp.com/podcasts/inside-china/3138561/building-chinas-new-space-station-beijings-moon-base-plans-and-its?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=12] Building China‘s new space station, Beijing’s moon base plans and its growing space industry [https://www.scmp.com/podcasts/inside-china/3138561/building-chinas-new-space-station-beijings-moon-base-plans-and-its?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=13]Video Of The Day  Strong winds batter China, ripping up records and roofs [https://www.scmp.com/video/china/3143637/strong-winds-batter-china-ripping-records-and-roofs?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=15]OPINIONThe ViewHao Zhou Why China is unlikely to cut rates despite economic headwinds [https://www.scmp.com/comment/opinion/article/3143547/why-china-unlikely-cut-interest-rates-despite-economic-headwinds?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143621&amp;tc=16]  [https://www.scmp.com/comment/opinion/article/3143547/why-china-unlikely-cut-interest-rates-despite-economic-headwinds?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143621&amp;tc=17]EditorialSCMP Editorial A harsh lesson for Hong Kong’s teachers to stay within legal limits [https://www.scmp.com/comment/opinion/article/3143621/harsh-lesson-hong-kongs-teachers-stay-within-legal-limits?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=18] China  [https://www.scmp.com/news/people-culture/trending-china/article/3143629/kris-wu-scandal-chinas-internet-watchdog-seeks?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143617&amp;tc=20]People &amp; Culture China’s internet watchdog seeks to rein in crazed celebrity fans and stalkers [https://www.scmp.com/news/people-culture/trending-china/article/3143629/kris-wu-scandal-chinas-internet-watchdog-seeks?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143617&amp;tc=21]Science China records 61 new Covid-19 cases, tries to contain growing outbreak [https://www.scmp.com/news/china/science/article/3143617/coronavirus-china-reports-61-new-cases-it-tries-contain-growing?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143584&amp;tc=22]Diplomacy US will raise China concerns in Asean meetings, official confirms [https://www.scmp.com/news/china/diplomacy/article/3143584/us-meetings-asean-will-include-china-concerns-no-call-pick?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143640&amp;tc=23]Hong Kong  [https://www.scmp.com/news/hong-kong/law-and-crime/article/3143640/hong-kong-ex-lawmaker-fined-breaking-aviation-law?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143614&amp;tc=24]Law and Crime Ex-lawmaker fined for Hong Kong airspace breach with ‘political prisoners’ balloon [https://www.scmp.com/news/hong-kong/law-and-crime/article/3143640/hong-kong-ex-lawmaker-fined-breaking-aviation-law?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143614&amp;tc=25]Society 80-year-old Hong Kong man struck by falling tree branch at bird garden [https://www.scmp.com/news/hong-kong/law-and-crime/article/3143614/80-year-old-hong-kong-man-struck-falling-tree-branch?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143566&amp;tc=26]Law and Crime Hong Kong police arrest 824 in illegal gambling busts around Euro 2020 [https://www.scmp.com/news/hong-kong/law-and-crime/article/3143566/hong-kong-police-arrest-824-seize-records-detailing?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143652&amp;tc=27]Business  [https://www.scmp.com/tech/policy/article/3143625/chinese-newspaper-deletes-report-called-video-gaming-spiritual-opium?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143587&amp;tc=28]Tech Chinese newspaper deletes report that called video gaming ‘spiritual opium’ [https://www.scmp.com/tech/policy/article/3143625/chinese-newspaper-deletes-report-called-video-gaming-spiritual-opium?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143587&amp;tc=29]Business Hong Kong stocks skid on Tencent setback as state media slams gaming ‘opium’ [https://www.scmp.com/business/markets/article/3143587/hong-kong-stocks-skid-new-attack-sends-tencent-netease-tumbling?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143649&amp;tc=30]Business China’s tech sector crackdown could lead to greater competition, S&amp;P says [https://www.scmp.com/business/article/3143598/antitrust-crackdown-chinas-tech-sector-could-lead-greater-competition-sp?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143609&amp;tc=31]Asia Malaysian PM makes U-turn on emergency law debate to appease ‘royal wrath’ [https://www.scmp.com/week-asia/politics/article/3143652/malaysias-muhyiddin-makes-u-turn-emergency-law-debate-avoid?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143620&amp;tc=32] Kim’s latest threats signal willingness to improve ties: Seoul spy chief [https://www.scmp.com/week-asia/politics/article/3143620/south-koreas-spy-chief-sees-promise-improved-cross-border-ties?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143489&amp;tc=33]Comment Why China is unlikely to cut rates despite economic headwinds [https://www.scmp.com/comment/opinion/article/3143547/why-china-unlikely-cut-interest-rates-despite-economic-headwinds?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143621&amp;tc=34] A harsh lesson for Hong Kong’s teachers to stay within legal limits [https://www.scmp.com/comment/opinion/article/3143621/harsh-lesson-hong-kongs-teachers-stay-within-legal-limits?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;tc=35]Lifestyle How Fruit Chan turned Hong Kong’s housing issue into a horror comedy [https://www.scmp.com/lifestyle/entertainment/article/3143649/fruit-chans-horror-comedy-coffin-homes-wild-and-relentless?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143622&amp;tc=36] Voice 4: disappointing K-drama lacks defined characters [https://www.scmp.com/lifestyle/k-pop/k-drama/article/3143622/k-drama-review-voice-4-disappointing-procedural-drama-loses?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143581&amp;tc=37]Culture K-pop new releases in July from BTS, Taeyeon, SF9, AKMU and more [https://www.scmp.com/lifestyle/k-pop/article/3143499/k-pop-must-listen-releases-july-2021-bts-taeyeon-sf9-akmu-and-more?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143469&amp;tc=38] K-pop’s Red Velvet to release ‘Queendom’ album celebrating seven years [https://www.scmp.com/lifestyle/k-pop/bands/article/3143469/k-pops-red-velvet-announce-long-awaited-return-queendom-album?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143598&amp;tc=39]Sport Tokyo Olympics: Haughey flying home to Hong Kong [https://www.scmp.com/sport/hong-kong/article/3143581/tokyo-olympics-philippines-nesthy-petecio-targets-boxing-gold-hong?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143646&amp;tc=40] ‘Fairness only for the hosts’: Chinese boxer fuming after Olympic loss [https://www.scmp.com/sport/china/article/3143646/tokyo-olympics-chinese-boxer-hu-jianguan-fumes-fairness-only-hosts?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143499&amp;tc=41]This Week In Asia Will Muhyiddin’s showdown with the Malaysian king be his undoing? [https://www.scmp.com/week-asia/politics/article/3143553/malaysias-muhyiddin-has-mastered-dodging-opposition-will?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143556&amp;tc=42] As vaccine outrage mounts, Thailand’s leaders go into attack mode [https://www.scmp.com/week-asia/politics/article/3143489/coronavirus-prayuth-takes-aim-thailands-celebrities-vaccine?utm_medium=email&amp;utm_source=cm&amp;utm_campaign=enlz-today_international&amp;utm_content=20210803&amp;tpcc=enlz-today_international&amp;UUID=df897e63-7216-403e-8ca6-b5ff7ed7e153&amp;next_article_id=3143553&amp;tc=43]STAY CONNECTED   [https://twitter.com/scmpnews]
-This email was sent to  mtlmh0304@gmail.com [mailto:mtlmh0304@gmail.com]
-unsubscribe from this list https://southchinamorningpost.cmail20.com/t/t-u-cflhjy-yhdyiktukh-il/      update subscription preferences https://southchinamorningpost.updatemyprofile.com/t-cflhjy-1D7765A4-yhdyiktukh-ir
-South China Morning Post Publishers Ltd · 19/F Tower 1 · 1 Matheson Street · Hong Kong · Hong Kong
-Copyright © 2021 South China Morning Post Publishers Ltd. All rights reserved.</t>
+          <t>Dear GOH YONG YU, The following Micro-Credential Courses are scheduled between 17 to 25 August 2021, registrations are now open. All courses listed here will be conducted online (virtual).   However, certain courses may be moved to physical face-to-face on SIM Campus should the situation allows it.  You will be notified on course status and delivery mode (either in-person or virtual) by email confirmation (about 1week) prior course starts.  Students who have concerns may wish to cancel their place at that point without making course fee payment. All micro-credential courses are course fee payable. 1) Microsoft Excel Basics (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/microsoft-excel-express/ Level 1 – 17 Aug (Tue), 12.00pm – 3.00pm Level 2 – 17 Aug (Tue), 3.30pm – 6.30pm Level 3 – 18 Aug (Wed), 3.30pm – 6.30pm Level 4 – 20 Aug (Fri), 12.00pm – 3.00pm Level 5 – 20 Aug (Fri), 3.30pm – 6.30pm 2)      Introduction to Python Programming (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/introduction to-python-programming-ipp/ Level 1 – 18 Aug (Wed), 12.00pm – 3.00pm Level 2 – 18 Aug (Wed), 3.30pm  – 6.30pm Level 3 – 23 Aug (Mon), 12.00pm – 3.00pm Level 4 – 23 Aug (Mon), 3.30pm – 6.30pm Level 5 – 25 Aug (Wed), 12.00pm – 3.00pm 3) Essentials of QuickBooks Accounting Software (Course Fee : S$64.20 for 6 hours workshop, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/essentials-of-quickbooks-accounting-software/ 19 Aug (Thu), 12.00pm – 6.30pm  (6 hrs ) Do note that each course has limited capacity, hence, registration will be closed once capacity is reached. To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro-Credentials. Select course in drop-down box – MSEB Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g MSEB Level 2). For details on course outline, registration opening dates, etc, please go to: -- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt;  click on Catalogue of Micro-credentials Courses &gt; Select any course title &gt; Click at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses in the upcoming month/s. For enquiries, please email CMC@sim.edu.sg Regards, SIM Global Education Centre for Micro-Credentials This is a system generated message. Do not reply to this email.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9097,7 +9033,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Suspicious</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -9107,7 +9043,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Non-Phishing</t>
+          <t>Phishing</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -9116,6 +9052,4688 @@
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>96.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>&lt;ADV&gt; Join us on 29 Jul: Complimentary Masterclass on Innovative Value Creation and Data Science</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>"SIM Global Education" &lt;study@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dr Matthew Thomas Assistant Professor, Strategy and International Business Birmingham Business School, University of Birmingham Dr Endrit Kromidha Director of the Singapore MBA and Associate Professor, Entrepreneurship and Innovation Birmingham Business School, University of Birmingham This masterclass will cover: · What defines value creation in a connected society. · How has the workplace evolved in the strategy and innovation context of organisations. · How can collaborative entrepreneurship and innovation create opportunities and value for businesse s. Dr Julian Lin Senior Lecturer Singapore Institute of Management This masterclass will cover: · Data Science and it's related terminologies · How different stakeholders like statisticians view Data Science · The relationship between Artificial Intelligence (AI) and Machine Learning · Machine Learning: Supervised and Unsupervised learning We look forward to seeing you online! Best regards, SIM Global Education Tel: +65 6248 9746 | Address: SIM HQ, 461 Clementi Road, Singapore 599491 Location Map | SIM Global Education | Facebook | Instagram | LinkedIn | Telegram Singapore Institute of Management Pte Ltd | CPE Registration Number: 199607747H | Period of Registration: 20 May 2018 - 19 May 2022 To unsubscribe, please click here</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>64.09761904759999%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lead an Active Student Life!</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following events/initiatives may interest you: 1. SIMBB Dhamma Talk (Transforming Fear and Anxiety) Date : 29 July 2021 Time : 7.30pm - 8.30pm SGT Event description : Many individuals experience a lot of anxiety and fear to fulfill their expectations by others. Some of us may not be aware of why we feel like this. Join our Dhamma talk to find how to overcome this feeling in Buddhist perspective! Registration link: https://forms.office.com/r/CQFqVZbbt9 2. SIM String Ensemble Auditions 2021 3.Cognizant! Keynotes &amp; Workshops AIESEC in SIM in collaboration with SIM iCare and SIM Psychology society presents - Cognizant! A virtual event catered to students to discover their leadership potential through insightful keynotes and engaging workshops. Gain self-awareness and learn professional communication skills through personality styled understanding. Sign up now at https://bit.ly/CognizantEvent or scan the QR code! DATE: 29th July 2021 TIME: 6.30 pm to 9 pm VENUE: ZOOM 4. SIM Photography Club Recruitment 5. SIM Board Games Society Games Session 6. SIM Guitar Club Recruitment 7. SIM Esprimere Chat with Us! Curious about what we do here in Esprimere? Come by and have fun with us! Take this chance to interact with our members and coaches, as well as ask us about anything you'd want to know more about our club! LAI LAI NO SKET SKET just come as you are and let's meet! Event will be through Zoom on the 5th of August 2021, at 6pm to 8pm! :) 8. SIM Esprimere Singing Club Auditions Ever had an interest in singing, instruments, music producing or even videography? We want you! Our much-anticipated audition is here again! Our auditions will be held from 16-20th of August through Zoom. Prepare the first verse and first chorus of 2 songs; they can be of different languages and genres, but do present at least one pop song! If you want to send us a video submission, then you're only required to sing 1 song through Zoom! Do come and join us! Sign up using the form in the poster by 8 August 2359! DM us at @esprimeresings or email us at singing@mymail.sim.edu.sg if you have any enquiries. See you there! To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>'20210723165430646SIMBB_Dharma_Talk.png'</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>57.99999999999999%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Reminder on Attendance Requirement</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Date: 23/07/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 87.5% as at 23/07/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>74.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Reminder on Attendance Requirement</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Date: 23/07/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 87.5% as at 23/07/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>74.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Upcoming Events</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Student Learning Centre Programmes - July/August 2021</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, This email is to share some of our SIM Student Learning Centre Programmes that we will be running in July/August 2021. There will be two main programmes running and they are: Academic Workshops (List of part 1 only. Part 2 will be sent to all students in the near future) Academic Writing Consultation Service To know more about each of the above mentioned programmes and how to join them, please refer to the attached PDF. If you have any enquiries, do email in to Learning@sim.edu.sg . Warmest Regards, SIM Student Learning Centre This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>'Student_Learning_Centre_Programmes_-_July-August_2021_Part_1.pdf'</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>&lt;ADV&gt; Join us on 29 Jul: Complimentary Masterclass on Innovative Value Creation and Data Science</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>"SIM Global Education" &lt;study@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dr Matthew Thomas Assistant Professor, Strategy and International Business Birmingham Business School, University of Birmingham Dr Endrit Kromidha Director of the Singapore MBA and Associate Professor, Entrepreneurship and Innovation Birmingham Business School, University of Birmingham This masterclass will cover: · What defines value creation in a connected society. · How has the workplace evolved in the strategy and innovation context of organisations. · How can collaborative entrepreneurship and innovation create opportunities and value for businesse s. Dr Julian Lin Senior Lecturer Singapore Institute of Management This masterclass will cover: · Data Science and it's related terminologies · How different stakeholders like statisticians view Data Science · The relationship between Artificial Intelligence (AI) and Machine Learning · Machine Learning: Supervised and Unsupervised learning We look forward to seeing you online! Best regards, SIM Global Education Tel: +65 6248 9746 | Address: SIM HQ, 461 Clementi Road, Singapore 599491 Location Map | SIM Global Education | Facebook | Instagram | LinkedIn | Telegram Singapore Institute of Management Pte Ltd | CPE Registration Number: 199607747H | Period of Registration: 20 May 2018 - 19 May 2022 To unsubscribe, please click here</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>64.09761904759999%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SIMGE Student Ambassador is recruiting!</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>"SIM Global Education" &lt;study@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SIM Student Ambassadors - We are recruiting! Dear YONG YU , Want to enrich your student life? Interested in honing your leadership qualities? Be a SIMGE Student Ambassador (SA) today and gain new experiences through exclusive opportunities! Visit our SA Programme page at SIM Website to find out more. Don't forget to follow us on our Social Media for latest news on our Recruitment Drive! Application Period: 01 JULY 2021 - 01 AUGUST 2021 (Email us at sa@sim.edu.sg for the application form.) Please ensure that all information in the application form are true and complete in order for us to evaluate your application properly. Admission Criteria: Must commit for at least 1 year Follow our Facebook &amp; Instagram Page Fun, eager to learn &amp; enjoy new challenges! Things to note: Shortlisted candidates will be contacted via email to attend an interview. Those selected to become a Student Ambassador will be required to attend mandatory training sessions. You will undergo on-the-job training where you will be guided by a senior Student Ambassador before you will be assigned any duty. We look forward to your application! Yours sincerely, Student Ambassador Committee If you can't view this mailer, please click here .</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Widen Your Horizons with Student Development!</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following events/initiatives may interest you: 1. SIM Outdoor Adventure Club (ODAC) Rock Climbing Recruitment 2. SIM Photography Club Recruitment 3. AIESEC in SIM Cognizant Event AIESEC in SIM in collaboration with SIM iCare and SIM Psychology society presents - Cognizant! A virtual event catered to students to discover their leadership potential through insightful keynotes and engaging workshops. Gain self-awareness and learn professional communication skills through personality styled understanding. Sign up now at https://bit.ly/CognizantEvent or scan the QR code! DATE: 29th July 2021 TIME: 6.30 pm to 9 pm VENUE: ZOOM 4. Zoom &amp; Un-gloom! (23 Jul 2021) SIM Peer Mentors will be hosting another Zoom &amp; Un-gloom session! Come join us in a 120-minute Zoom session to meet new friends, learn about each other through simple activities and have fun. For this month, the theme will be Olympics. Date: 23 Jul 2021 (Friday) Time: 3.30pm – 5.30pm Platform: Zoom Meeting Click on the following link to register: http://bit.do/JulZoomAndUngloom (Case Sensitive) Registration Deadline: Wednesday, 21 Jul 2021, 12pm 5.  SIM IAS- Harvard National Model United Nations (HNMUN) 2022 Training Programme Application Now Open! Want to go to Boston and New York City*? HNMUN is an experience like no other - a chance to represent SIM, an opportunity to become a better you. If you are looking to find like-minded friends interested in solving real world challenges, the HNMUN programme is your home. The SIM International Affairs Society’s HNMUN2022 training programme application is now open and you can register through the link below! If you are still on the fence, click on the registration link below to  find out more! *Tentative to Singapore’s travelling regulations Application Period: 8-19 July 2021 Registration link: https://survey.sim.edu.sg/simge/index.php/487971/lang-en 6. SIM Accounting Association (SIMAA) Subcommittee Recruitment Interested to find out more about the events and opportunities available for you by SIMAA and our partners? Join us now through our Recruitment Drive to learn and experience together with the SIMAA family for an enjoyable and fulfilling student life! Sign up now at bit.ly/SIMAA2021 ! Registration closes on 24th July 2021 , 2359H ! 7. Board Games Society Game Sessions To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>'20210716172518181ODAC.png'</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Reminder on Attendance Requirement</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Date: 16/07/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 87.5% as at 16/07/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>74.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Reminder on Attendance Requirement</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Date: 16/07/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 87.5% as at 16/07/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>74.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Registration Open - Introduction to Python Programming Course on 2,
+ 4 &amp; 11 Aug</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, Registration for Micro-Credential Course - Introduction to Python Programming (Levels 1 - 5) , is now open. Courses will be conducted as physical in-person sessions (on SIM campus), unless otherwise advised. You will be notified on course status and delivery mode (either in-person or virtual) by 28 July via email. All micro-credential courses are course fee payable. 1) Introduction to Python Programming (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/introduction to-python-programming-ipp/ Level 1 – 2 August (Mon), 12.00pm – 3.00pm Level 2 – 2 August (Mon), 3.30pm  – 6.30pm Level 3 – 4 August (Wed), 12.00pm – 3.00pm Level 4 – 4 August (Wed), 3.30pm – 6.30pm Level 5 – 11 August (Wed), 12.00pm – 3.00pm Closing Date of Registration is 21 July. Do note that each course has limited capacity, hence, registration will be closed once capacity is reached. To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro-Credentials. Select course in drop-down box – IPP Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g IPP Level 2). For details on course outline, registration opening dates, etc, please go to: -- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt;  click on Catalogue of Micro-credentials Courses &gt; Select any course title &gt; Click at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses in August 2021. For enquiries, please email CMC@sim.edu.sg Regards, Centre for Micro-Credentials SIM Global Education This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ISIT307 FT Tutorial Group 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bg lu &lt;lubg9@outlook.com&gt;</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Dear Students
+Below is a link to all the materials we used in class and also the recording.
+https://1drv.ms/u/s!Al8NQdSr9BmHg9UB3wxu6nVp7yKCYg?e=gkN0zd
+Below is the link for the team formation.
+https://1drv.ms/x/s!Al8NQdSr9BmHg9UWh_i105i2I96jsw?e=dJ7Yxg
+Dr Lu</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Payment [Incident: 210713-000775]</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>"SIM Global Education Student Services" 
+    &lt;students@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Recently you requested personal assistance from our on-line support  
+center. Below is a summary of your request and our response.
+If this issue is not resolved to your satisfaction, you may reopen it within the next  days.
+Thank you for allowing us to be of service to you.
+To access your question from our support site, click https://simpl.custhelp.com/app/account/questions/detail/i_id/2267262/track/AvM3uwoDDv8S~TxdGoQS~yItvu8qwC75Mv_5~zj~PP9w/
+---------------------------------------------------------------
+Subject
+---------------------------------------------------------------
+Payment
+Discussion Thread
+---------------------------------------------------------------
+Response By Email (Jian Bin Neo) (14/07/2021 12:04 PM)     
+Dear Yong Yu
+We note that you have accessed SIMConnect for school fee payment.
+We checked that you have completed the payment of S$4,066.00 on 6 July 2021 for the July semester.
+You can print the receipt from SIMConnect. Please navigate via My Apps &gt; Self-Service &gt; Campus Finances &gt; Account Inquiry &gt; Payment &gt; adjust the date range to the period you wish to check on &gt; Receipt number (click on the hyperlink receipt number to download a copy of the pdf receipt).
+May we understand what other payment you are required to make?
+Warmest regards
+Student Services
+SIM Global Education
+Auto-Response By  (Administrator) (13/07/2021 07:36 PM)     
+Dear YONG YU , 
+Please note you are writing to an email account intended for SIM GE students and alumni only. We will respond to students’ enquiries received from Office365 Mymail (eg. xxxx@mymail.sim.edu.sg ) within 3 working days. Please resend this email using your Office365 Mymail email account if you have not done so. If you have forgotten your Office365 Mymail password, please indicate “REQUEST TO RESET OFFICE365 MYMAIL PASSWORD” as subject header for our processing. Thank you for working together with us to safeguard your academic information.  Student ServicesSIM Global Education 
+Customer By CSS Email (YONG YU  GOH) (13/07/2021 07:36 PM)     
+(https://simpl.custhelp.com/ci/inlineImage/get/1589265/aaa611a93d8dac11b0070d79039d481b)
+Hi,
+trying to pay my school fees but when i access the system nothing shows up.
+Question Reference # 210713-000775
+       Date Created: 13/07/2021 07:36 PM
+  Date Last Updated: 14/07/2021 12:04 PM
+             Status: Closed
+[---002:001989:53358---]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GOH YONG YU &lt;yygoh010@mymail.sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Hi, trying to pay my school fees but when i access the system nothing shows up.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>'image.png'</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Announcement on UOW Double Major Programmes</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hamidah Bte Mohamad &lt;hamidahm@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dear Students,
+We are pleased to inform you that we will be offering the following three new UOW double majors programs with effect from the October 2021 semester. Current students will be able to transfer to the programmes as early as October 2021, subject to availability of places.
+  1.  Bachelor of Computer Science (Digital Systems Security &amp; Big Data)
+  2.  Bachelor of Computer Science (Digital Systems Security &amp; Cyber Security)
+  3.  Bachelor of Computer Science (Cyber Security &amp; Big Data)
+More information about these programs will be shared in the briefing session as detailed below:
+Date: 15 July 2021 (Thursday)
+Time : 6.30pm - 7.30pm
+Zoom link: https://uow-au.zoom.us/j/83241981316?pwd=Q0FtV0JnVHVyM05tQmRqblMwaGwyQT09
+Meeting ID: 832 4198 1316
+Password: 339713
+Kindly note that there is a process in place for the double major's application which is as follows:
+1.      Students will need to submit their interest via email to the respective SIM administrators from 15 July to 31 July 2021.
+*       Bachelor of Computer Science (Digital Systems Security &amp; Big Data) - Ms. Patricia Wong at patriciawong@sim.edu.sg *       Bachelor of Computer Science (Digital Systems Security &amp; Cyber Security) - Ms. Sarina at sarinas@sim.edu.sg *       Bachelor of Computer Science (Cyber Security &amp; Big Data) - Ms. Pearlyn Poh at pearlynpoh@sim.edu.sg 2.       The Application for Programme Change in SIMConnect will open from 2 August to 15 August 2021.
+3.       Students will need the following documents in order to complete the application for Programme Change, failing which the application will be considered invalid.
+-          Email confirmation from respective SIM administrators
+-          Completed UOW Application for Course Transfer form (copy attached)
+4.      A programme change fee of S$214 applies and will not be refunded once an application is processed.
+  1.  Invalid applications will not be processed and the refund of programme change fees will be made within a month from the date of application.
+If you have any questions, please raise them during the briefing Q&amp;A session on 15 July 2021.
+Best regards,
+Hamidah Mohamad
+Executive | Higher Education 8
+Programme Operations
+[https://heartbeat.sim.edu.sg/corporate-resources/Corporate-Kit/Group/PublishingImages/Pages/E-mail-Signatures/email-signature-SIMGE.png]
+Singapore Institute of Management Pte Ltd
+461 Clementi Road, Singapore 599491
+T: 65 6248 9733 | F: +65 6462 9263 | www.simge.edu.sg ________________________________
+Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>'image001.png'</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>99.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Enrich Your Student Life!</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following activities may interest you: 1. SIM Photography Club Recruitment 2. SIM Board Games Society game session July 2021 3.  AIESEC in SIM, Youth Speak Forum 10 July 2021 4. SIM Photography Club Memories Photography Competition To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>'20210709193039249photog.png'</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>90.6666666667%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>One or more of the folders in your mailbox are named incorrectly.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Microsoft Outlook
+	&lt;MicrosoftExchange329e71ec88ae4615bbc36ab6ce41109e@mymailsimedu.onmicrosoft.com&gt;</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>One or more folders in your mailbox is named incorrectly. The name of one or more of your folders includes the character "/" or more than 250 characters. Folders with names that include this character can't be downloaded to your IMAP e-mail program. Please rename these folders: UOW 2020/1 (Calendar/UOW 2020/1) https://studentcal.simge.edu.sg/SIMCalendar/92a517064dad38a1e05500dc114ccabe.ics (Deleted Items/https://studentcal.simge.edu.sg/SIMCalendar/92a517064dad38a1e05500dc114ccabe.ics) https://studentcal.simge.edu.sg/SIMCalendar/92a517064dad38a1e05500dc114ccabe.ics_9fe878814d204e91910a2f7598d8f5ce (Deleted Items/https://studentcal.simge.edu.sg/SIMCalendar/92a517064dad38a1e05500dc114ccabe.ics_9fe878814d204e91910a2f7598d8f5ce)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>71.7047619048%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fee Protection Insurance</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>&lt;fps@lonpac.com&gt;</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>We wish to extend our appreciation to you for insuring with Lonpac and are pleased to enclose a copy of your Certification of Insurance for your kind attention. Should you have any enquiry or require any assistance kindly contact your school or institution administrator. Lonpac is committed to protect the privacy and confidentiality of your personal data provided to us in compliance with the Personal Data Protection Act 2012 (PDPA). You may refer to our Privacy Policy at https://www.lonpac.com.sg/home/privacy-policy.
+Thank you for insuring with us. We look forward to your continuous support.
+Please do not reply to this email as this is an auto generated email.
+Thank you.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>'21761611.pdf'</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>87.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Upcoming Events</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Payment Reminder</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>noreply@simge.edu.sg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, This is a gentle reminder that fee payment of S$4,066.00 will be due in two days. For your convenience, you may make the payment online before the deadline via SIMConnect (select Self Service &gt; Campus Finance &gt; Make a payment ). We would appreciate your prompt attention. Please contact Student Services at students@sim.edu.sg should you need further clarifications or assistance. If you have recently made the payment, please ignore this reminder. Thank you. This is a computer-generated message. Please do not reply to this message.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Be a part of student life &amp; add colour to your lives!</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following initiatives/events may interest you: 1.  SIM Photography Club Recruitment July 2021 2. SIM Board Games Society Game Session July 2021 3. SIM-RMIT Student Council Recruitment Drive July 2021 &lt;Applicable to SIM-RMIT students only&gt; To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>'20210702192938851photog.png'</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>70.0833333333%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Stress Anxiety Management Workshop, Public Forum on OCD and
+ #JustCheckingIn!</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, Stress &amp; Anxiety Management Workshop Series Do you find yourself feeling overwhelmed and stressed out but not knowing what you can do to calm yourself down? Come join us at our 2 session, 2.5hr per session workshop series to understand how your body reacts to stress and tips on how you can better cope with these responses. Dates: 15 &amp; 22 Jul 2021 (Thursdays) Time: 3.30pm – 6pm Platform: Zoom Meeting Please open the attachment for more details and click on this link to register: http://bit.do/JulyStressAnxiety Registration Deadline: 21 July 2021, 2359 hrs. “I Am Me, Not My OCD”- An Online Public Forum Do you know what is Obsessive-Compulsive Disorder (OCD)? Would you be interested to find out more by hearing from individuals living with OCD, and what it takes to overcome it? If you are, do refer to the attachment for more information regarding this upcoming Online Public Forum. Date: 24 July 2021 (Saturday) Time: 9.30am – 12pm Platform: Youtube Live Stream (Link will be sent to registered participants) You may register HERE . Hi #JustCheckingIn Virtual Journey Do you need some tips and resources on how to start a conversation with the people around you who may be going through tough times or need help? Check out Health Promotion Board’s “Hi #HiJustCheckingIn” campaign! You may refer to the attachment for more details or visit their virtual roadshow HERE . This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>'JulW1_Combined.pdf'</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>95.4333333333%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Registrations Open for Micro-Credential Courses scheduled between
+ 19 - 31 July</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following Micro-Credential Courses are scheduled between 19 July to 31 July 2021 registrations are now open. All courses below are conducted ONLINE (students will be notified for the online arrangement prior to course commencement dates) . All micro-credential courses are course fee payable. 1)      Introduction to Robotic Process Automation (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/introduction-to-robotic-process-automation-rpa/ Level 1 – 19 July (Mon), 8.30am – 11.30am Level 2 – 19 July (Mon), 12.00pm – 3.00pm Level 3 – 21 July (Wed), 8.30am – 11.30am Level 4 – 21 July (Wed), 12.00pm – 3.00pm Level 5 – 23 July (Fri), 8.30am – 11.30am 2) Project &amp; Equity Investment Analyst Programme (Series 3) (Course Fee : S$428 for 6 days, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/project-and-equity-investment-analyst-programme-peiap/ 19 Jul (Mon), 21 – 24 Jul (Wed – Sat) &amp; 28 Jul (Wed) , 9am - 5pm daily 3) Microsoft Excel Basics (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/microsoft-excel-express/ Level 1 – 27 Jul (Tue), 12.00pm – 3.00pm Level 2 – 27 Jul (Tue), 3.30pm – 6.30pm Level 3 – 28 Jul (Wed), 3.30pm – 6.30pm Level 4 – 29 Jul (Thu), 12.00pm – 3.00pm Level 5 – 29 Jul (Thu), 3.30pm – 6.30pm 4) Industry Analyst Programme (Series 1) (Course Fee : S$428.00 for 6 days, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/industry-analyst-programme-iap/ 30, 31 Jul (Fri &amp; Sat), 3 -5 Aug (Tue – Thu) &amp; 7 Aug (Sat) , 9am - 5pm daily Do note that each course has limited capacity, hence, registration will be closed once capacity is reached. To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro Credentials. Select course in drop-down box – IRPA Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g IRPA Level 2). For details on course outline, registration opening dates, etc, please go to:- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt;  click on Catalogue of Micro-credentials Courses &gt; Select any course title &gt; Click at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses in July 2021. For enquiries, please email CMC@sim.edu.sg Regards, Centre for Micro-Credentials SIM Global Education This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>96.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(REGISTER NOW) SPARKS International Virtual Career &amp; Internship Fair
+ 2021</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Careerconnect &lt;careerconnect@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dear Student,
+OPEN TO ALL STUDENTS 📣
+SPARKS International Virtual Career &amp; Internship Fair 2021 will be taking place next week (30 June 2021)!
+For the inaugural international VCF, we are honoured to host participating employers from Malaysia. These include MNCs such as Nestlé, PwC, TikTok, Shopee, Oracle, Ninja Van, CPA Australia, &amp; Alliance Bank.
+The SPARKS VCF was established to cater to the needs of our international students studying at SIM. Most importantly, this event was created to serve as a platform to connect our students with overseas employers. Nonetheless, this event is not exclusive to international students only. We would like to invite ALL SIM STUDENTS to participate in this virtual career fair. We strongly believe that through this experience, our students will be able to develop a better understanding of the technical skills &amp; competencies required to thrive in a post-Covid 19 economy (new normal).
+The details of the event are as follows:
+Date: 30 June 2021 (Wed)
+Venue: Zoom
+Consolidated Zoom Registration List: https://qrco.de/SPARKSJUNE21
+**Kindly register in advance to receive the zoom link
+REGISTER NOW!
+1
+Shopee Malaysia
+E-commerce
+30th Jun
+10.00 a.m. – 10.45 a.m.
+https://sim-edu-sg.zoom.us/meeting/register/tJEvd-mvqz4vH908oB2bw9QW3100brVQIcRG
+2
+Alliance Bank
+Banking
+30th Jun
+11.00 a.m. – 11.45 a.m.
+https://sim-edu-sg.zoom.us/meeting/register/tJwpfuugpzsrEtA5AeaBmw9JW_7_6uwa57tV
+3
+CPA Australia
+Accounting
+30th Jun
+12.00 p.m. – 12.45 p.m.
+ https://sim-edu-sg.zoom.us/meeting/register/tJEpd-qorT0uGt1NSJOvKHFRCD3dgBz02v6L 4
+Ninja Van Malaysia
+Logistics &amp; Supply Chain
+30th Jun
+1.00 p.m. – 2.00 p.m.
+https://sim-edu-sg.zoom.us/meeting/register/tJUkdeCsrDouH9Nj5e7PmWyqXCiQNY_RBbei
+5
+Nestle Malaysia
+FMCG
+30th Jun
+2.00 p.m. – 2.45 p.m.
+https://sim-edu-sg.zoom.us/meeting/register/tJEqcOmqqjksHtIuQJhcWfsxpdWmJph90VBe
+6
+Oracle Malaysia
+IT &amp; Technology
+30th Jun
+3.00 p.m. – 3.45 p.m.
+https://sim-edu-sg.zoom.us/meeting/register/tJIofu-urD4vH90nXHvmDTYks00D_LHuvMbt
+7
+PwC Malaysia
+Audit &amp; Accounting
+30th Jun
+4.00 p.m. – 4.45 p.m.
+https://sim-edu-sg.zoom.us/meeting/register/tJcuf-urrDwoGtW9U0_3xCg81OpSVSaz6UPX
+8
+TikTok
+Technology
+30th Jun
+5.00 p.m. –5.45 p.m.
+https://sim-edu-sg.zoom.us/meeting/register/tJIvdeuoqzIpGdGp_T_RIeJ90qTd-Tl-wXz0
+Kindly contact careerchamp@sim.edu.sg if you require any further clarification.
+[https://lh4.googleusercontent.com/QCU5M4q8fZYctu38PbYNi5CcGplcQr394telJAPjSuBhTLnhanXnvnqVaWw9ix7bLNDcBbM6eq3cX8q_2K1Fnj_TMroPEqkv-C12PuS-T-h58LNhiVhhdro0F0bz4ZQx9_xlyPpH]
+Career Connect
+Learner Advisory &amp; Career Centre
+Singapore Institute of Management, 461 Clementi Road, Singapore 599491
+Tel:+65 6248 0264  l  Web: www.sim.edu.sg Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>'Outlook-https___lh.jpg'</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Be a Part of a Vibrant Student Life!</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following events/initiatives may interest you: 1. SIM Refer A Friend Programme Do you have siblings, relatives or friends who are considering studying in SIM?  When you make a recommendation and they submit the programme application, you will be eligible for our RAFP reward.  Do you have some questions about the programme? Refer to FAQ on SIM Connect or Forms under Resource for terms and conditions. 2. SIM Chinese National Network (CNN) Subcommittee Recruitment June 2021 SIM CNN is looking for passionate individuals willing to join and support the students community, lead and bring members into the next chapter. Come join the EXCO team in the next adventure and embark on a journey to serve Chinese students, learn and grow. We currently have openings for the following departments: Marketing IT Events Secretary Click here to apply: https://wj.qq.com/s2/8621254/c1a5/ For further enquiries, write to us at isncnn@mymail.sim.edu.sg and don't forget to follow our WeChat official account: SIMCNN. 3. SIM Young Entrepreneur Network (YEN) Subcommittee Recruitment June 2021 Come join SIMYEN, a dynamic community driving initiatives for aspiring young entrepreneurs to nurture and grow, build entrepreneurial skills, actualizing business ideas while building strong networks and connections. Be part of our subcommittee in any of our following departments: Marketing Ambassador Human Resources Sign up here and be a part of our ever-growing family that learns together! Apply here: SIMYEN Subcomm 2021/2022 (https://survey.sim.edu.sg/simge/index.php/248448/lang-en) Interview date will be confirmed through email. To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>'20210626193057978sdev.png'</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Show your SIM lecturers you appreciate them!</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, SIM is organising a faculty appreciation event for all lecturers on 10 July 2021. To make this event extra special, we would like to invite all students to submit thank you messages to your lecturers at https://bit.ly/simappreciation2021 You can also show your appreciation by uploading an image, audio recording or video. The size has to be less than 10MB. Although we are involving colleagues, peers and the community as a whole to celebrate and recognise the lecturers’ dedication to teaching at this special event, it is often the words of students which have the most profound effect. When students take the time to jot down a note of thanks that recognises the impact a lecturer has had on them, it can show just how powerful a lecturer can be. To ensure that your thank you message is uploaded in time for the upcoming event for the lecturers’ viewing, please submit your message by 4 July 2021. Let’s appreciate our SIM lecturers by writing them the perfect lecturer appreciation note. Imagine the joy it will bring your lecturer. Nothing is better than to show a little love and thanks for your lecturer! Best regards, SIMGE Academic Development Team fad@sim.edu.sg This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>88.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Invoice - Fees</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>noreply@simge.edu.sg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU Please find attached your invoice from SIM GE.  A copy of this invoice can also be viewed online in SIMConnect by clicking here After signon to SIMConnect please click on the Charges Due tab. Payment can be made via the following modes: In accordance with the Singapore Government's "circuit breaker" measures to curb the spread of COVID-19, SIM will suspend payment counter services from 7 April till further notice. This arrangement is for the well-being of our students and staff. You can use the online payment service to pay your fees. Online Visa/MasterCard/eNETS Note that this is a computer-generated message.  Please do not reply to this message.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>'10213158_AU003-STD-0000038230A3.pdf'</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>68.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gentle Reminder - Online Enrolment through UOW- SOLS _ BBIS FT</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sarina Binte Samsuri &lt;Sarinas@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Dear Students,
+Gentle reminder to enroll your subjects in SOLS 24 hours before your 1st online lesson start in Q3'2021.
+Online Enrolment through UOW- SOLS
+It is your responsibility to ensure enrolment in the correct subjects each session. Students who have not enrolled by the cut-off date for each session may not be allowed to continue the subject.
+From your first session of study in the UOW-SIM program you will be required to enroll in your subjects using SOLS.
+How do I enrol into subjects?
+The following screenshots show steps involved in performing online enrolment in SOLS using the 'Enrolment and Variations' link. If you are unsure about any steps in the process or what subjects to enroll in, please contact me. Failure to enrol may result in a financial penalty.
+  1.  Type in the code for the subject you wish to add, then
+  2.  Click Add Subject.
+[Add Subject 1]
+  1.  On the next screen, you will see choices for subjects offered your enrolled campus (i.e. Campus: Singapore Institute of Management, Year: 2021, Session: SIM Session 3). If you need to check other campus offerings, click the list subjects in all campuses button.
+  2.  If you wish to return to the previous screen and start again, press the previous button.
+  3.  Note that if you cannot add the subject for some reason (outside of time for example), you will see a message here.
+  4.  Make sure you have selected the correct campus and session and click 'add'.
+[Add Subject 2]
+  1.  You can confirm you have done everything correctly by finding the subject on the next page under the correct session. It will either say enrolled or provisional.
+SOLS (Student Online Services) access is available through the UOW website at the following link: http://www.uow.edu.au/student/offshore/
+If you are experiencing any problems with UOW SOLS password, please contact the UOW IT Service Centre at student-accounts@uow.edu.au .
+If you are experiencing any problems with SIMConnect or SIM MyMail account , please contact the SIM Student Services Centre at 62489393 or students@sim.edu.sg For further clarifications and assistance on your progression, do feel free to contact us.
+Warmest regards,
+[SIM.GE.SQ.2D.1C.jpg]
+Sarina Samsuri
+Singapore Institute of Management, 461 Clementi Road, Singapore 599491
+Tel: +65 6248 0062  l  Fax: +65 6462 9263  l  Web: www.simge.edu.sg [cid:3CC565E9-F112-4D28-8FE3-168D1A3B9C2A] Bring Out Your Best at SIM.
+Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>'image001.jpg'</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Upcoming Events</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FYP 2nd Lecture</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bg lu &lt;lubg9@outlook.com&gt;</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Dear Students
+You can use the following link to the 2nd lecture.
+Poh-Kok Loo is inviting you to a scheduled Zoom meeting.
+Topic: CSCI321 S2 2021 - S3 2021 2nd Lecture
+Time: Jun 19, 2021 12:00 PM Singapore
+Join from PC, Mac, Linux, iOS or Android:
+https://uow-au.zoom.us/j/87506537348?pwd=ZlV6QXZjdTd4UFZ4bXlxUGFlR1ZuQT09
+Meeting ID: 875 0653 7348
+Password: 097533</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>99.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Be Informed with Student Development!</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, 1. Protect Yourself from Scams E-commence scams continue to be one of the most commonly reported type of scam especially among young adults. Greater awareness is one of the ways we can guard ourselves from such scams. Find out more at https://www.scamalert.sg/ 2. SIM International Affairs Society (IAS) Virtual Panel Discussion 2021: Cyber Security Join us for an interactive and enriching evening at our virtual Panel Discussion on Zoom, where we will be covering the global view on Cyber Security . The distinguished panel will comprise the following individuals: Mr Md Noordin, Global Chief Information Security Officer at Circles.Life Mr Benjamin Ang, Head of Cyber and Homeland Defence, Centre of Excellence for National Security, RSIS NTU Date: 23 June 2021 Time: 7pm-9pm SGT Platform: Zoom Registration link: https://survey.sim.edu.sg/simge/index.php/182787/lang-en To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>'20210618160454637CHECK_Guidelines_EDM.png'</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>69.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Registrations Open for Micro-Credential Courses scheduled between 6
+ - 17 July</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following Micro-Credential Courses are scheduled between 6 July to 17 July 2021, registrations are now open. All courses below are conducted ONLINE (students will be notified for the online arrangement prior to course commencement dates) . All micro-credential courses are course fee payable. 1)      Introduction to Python Programming (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/introduction to-python-programming-ipp/ Level 1 – 12 July (Mon), 12.00pm – 3.00pm Level 2 – 16 July (Fri), 3.30pm  – 6.30pm Level 3 – 21 July (Wed), 12.00pm – 3.00pm Level 4 – 21 July (Wed), 3.30pm – 6.30pm Level 5 – 23 July (Fri), 3.30pm – 6.30pm 2)        Introduction to BlockChain (Course Fee : S$128.40 for 3 days, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/blockchain-developer/ 6 to 8 July (Tue - Thu), 9am - 5pm daily 3)        Applied Insights to LinkedIn Marketing (Course Fee : S$128.40 for 3 days, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/applied-insights-to-linkedin-marketing-tbc/ 13 to 15 July (Tue - Thu), 9am - 5pm daily 4)        Credit Analyst Programme (Series 2) (Course Fee : S$428.00 for 3 days, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/credit-analyst-programme-cap/ 10 Jul (Sat), 13 to 17 July (Tue - Sat), 9am - 5pm daily Do note that each course has limited capacity, hence, registration will be closed once capacity is reached. To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro-Credentials. Select course in drop-down box – IPP Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g IPP Level 2). For details on course outline, registration opening dates, etc, please go to: -- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt;  click on Catalogue of Micro-credentials Courses &gt; Select any course title &gt; Click at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses in July 2021. For enquiries, please email CMC@sim.edu.sg Regards, Centre for Micro-Credentials SIM Global Education This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Download Our App</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(RMSS)CSIT321/L205 CHANGE OF TIMING ON 19/06,12PM</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, (RMSS)CSIT321/L205 CHANGE OF TIMING ON 19/06,12PM Dear Students Please note that there is a change to the TIMING on 19/6(Sat) of the above subject. THE NEW TIMING is 12pm to 3pm. Venue: Online Live Streaming.You can refer to your Personalized Timetable in SIMConnect on the next working day for more details. Please DO NOT reply to this email Best Regards Resource Management &amp; Support Services Campus Infrastructure &amp; Operations Division This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>53.349999999999994%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Persons with Mental Health Issues (PMHI) Young Caregivers Training
+ Programme</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, Are you a caregiver caring for a family member or friend with a mental health condition? Or, are you interested in becoming a peer caregiver (care for a friend with a mental health condition)? If you have answered YES to any of the questions above, we would like to invite you to join an upcoming Persons with Mental Health Issues (PMHI) Young Caregivers Training Programme This training programme will be conducted by Caregivers Alliance Limited and some takeaways from this programme include a greater understanding of mental health conditions and becoming better equipped with soft skills such as empathy and effective communication. There will be a total of 8 sessions for this training programme, which will be held on Mondays and Wednesdays in the month of July, and the 1 st week of August, from 7.30pm – 9.30pm. If you are interested, please refer to the poster below for more details. To register, kindly click on this link: http://tinyurl.com/CAL-YCG Deadline for Registration: Wednesday, 30 June 2021, 2359hrs. Please do note that should you choose to register, attendance is compulsory for all 8 sessions . If you have any questions regarding this training programme, feel free to drop an email to Veena, the Programme Manager at veena@cal.org.sg . This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>'20210617093144771Young_Caregivers_Training_Programme_-YCG-SIM_16062021.jpg'</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CSCI321 Prototype Demo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bg lu &lt;lubg9@outlook.com&gt;</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dear Students
+Below is the link to the Prototype Demo. Once you are in the session, please join the respective room as indicated below. You may want to come join the room earlier to setup your presentation materials.
+Topic: CSCI321 Prototype demo (Dr Loo)
+Time: Jun 19, 2021 08:30 AM Singapore
+  *   https://uow-au.zoom.us/j/88946967074?pwd=VVN6eGY0NEIySG1QYjJnRUU1TklOQT09
+  *   Meeting ID: 889 4696 7074
+  *   Password: 928894
+  *   Room 1: 08:30am FYP-21-S2-27
+  *   Room 2: 09:00am FYP-21-S2-28
+  *   Room 3: 09:30am FYP-21-S2-29
+  *   Room 4: 10:00am FYP-21-S2-30
+  *   Room 5: 10:30am FYP-21-S2-31
+  *   Room 6: 11:00am FYP-21-S2-32P
+Dr Loo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>95.6666666667%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RE: CSIT321 Project FYP Apr 2021</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Bernard Sin Yi-Liang &lt;Bernardsin@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Dear students,
+For this Saturday second lecture, Dr Loo had requested to move the lecture from 3:30pm to 12:00pm as he has another engagement later in the day.
+Please note while we await the online link from Dr Loo.
+Best regards,
+Bernard
+From: Bernard Sin Yi-Liang
+Sent: Monday, June 14, 2021 1:00 PM
+To: zzmok001@mymail.sim.edu.sg; bcteo001@mymail.sim.edu.sg; jchen089@mymail.sim.edu.sg; hadinr001@mymail.sim.edu.sg; le064@mymail.sim.edu.sg; agarwal042@mymail.sim.edu.sg; ahkh001@mymail.sim.edu.sg; anbu001@mymail.sim.edu.sg; bhadkamk001@mymail.sim.edu.sg; bwskhor001@mymail.sim.edu.sg; chhajlan001@mymail.sim.edu.sg; arora014@mymail.sim.edu.sg; mliang003@mymail.sim.edu.sg; sangelin002@mymail.sim.edu.sg; mxtong001@mymail.sim.edu.sg; vs001@mymail.sim.edu.sg; nguyen280@mymail.sim.edu.sg; jng038@mymail.sim.edu.sg; icchen002@mymail.sim.edu.sg; mlazuard001@mymail.sim.edu.sg; kjtay002@mymail.sim.edu.sg; jytio001@mymail.sim.edu.sg; ezhchew001@mymail.sim.edu.sg; kmanuel001@mymail.sim.edu.sg; jchzchun001@mymail.sim.edu.sg; qxawu001@mymail.sim.edu.sg; kowong001@mymail.sim.edu.sg; dhcho001@mymail.sim.edu.sg; muhammad764@mymail.sim.edu.sg; kpang002@mymail.sim.edu.sg; mqglim001@mymail.sim.edu.sg; le067@mymail.sim.edu.sg; sjtan045@mymail.sim.edu.sg; hmchun001@mymail.sim.edu.sg; xynlim001@mymail.sim.edu.sg; jmneo002@mymail.sim.edu.sg; ljlgeral001@mymail.sim.edu.sg; kfegoh001@mymail.sim.edu.sg; hsusanto002@mymail.sim.edu.sg; cyoh001@mymail.sim.edu.sg; scsser001@mymail.sim.edu.sg; jhpoh004@mymail.sim.edu.sg; yygoh010@mymail.sim.edu.sg; ehshue001@mymail.sim.edu.sg; rqong002@mymail.sim.edu.sg; jjdlee002@mymail.sim.edu.sg; phxin001@mymail.sim.edu.sg; wjlai002@mymail.sim.edu.sg; wchua015@mymail.sim.edu.sg; ixytan001@mymail.sim.edu.sg; jjyquek001@mymail.sim.edu.sg; whlim020@mymail.sim.edu.sg; msin002@mymail.sim.edu.sg; jjong019@mymail.sim.edu.sg; kmteh001@mymail.sim.edu.sg; kwcwoo001@mymail.sim.edu.sg; sjyong001@mymail.sim.edu.sg; mpjho001@mymail.sim.edu.sg; wjjchua002@mymail.sim.edu.sg; rzxlai001@mymail.sim.edu.sg; ngjong001@mymail.sim.edu.sg; cldtay001@mymail.sim.edu.sg; jxdtan004@mymail.sim.edu.sg; whwong018@mymail.sim.edu.sg; njyheng001@mymail.sim.edu.sg; wjpoon001@mymail.sim.edu.sg; wzlow003@mymail.sim.edu.sg; dat001@mymail.sim.edu.sg; jdtan005@mymail.sim.edu.sg; jhlee034@mymail.sim.edu.sg; wschua008@mymail.sim.edu.sg; awsetiaw001@mymail.sim.edu.sg; bcsugian001@mymail.sim.edu.sg; fcwlow001@mymail.sim.edu.sg; swadharm001@mymail.sim.edu.sg; jhkhoo006@mymail.sim.edu.sg; khlee014@mymail.sim.edu.sg; zliu031@mymail.sim.edu.sg; rpranaya001@mymail.sim.edu.sg; thamotha001@mymail.sim.edu.sg; muhammad747@mymail.sim.edu.sg; jkong010@mymail.sim.edu.sg; jlow013@mymail.sim.edu.sg; sjtoh001@mymail.sim.edu.sg; yyiyeo001@mymail.sim.edu.sg; kwon004@mymail.sim.edu.sg; cyjloh001@mymail.sim.edu.sg; shinpsk001@mymail.sim.edu.sg; jsleong003@mymail.sim.edu.sg; jmma002@mymail.sim.edu.sg; mazlan005@mymail.sim.edu.sg; muhammad762@mymail.sim.edu.sg; hzdng002@mymail.sim.edu.sg; rnawingg001@mymail.sim.edu.sg; yhtiang001@mymail.sim.edu.sg; nairduh001@mymail.sim.edu.sg; hay003@mymail.sim.edu.sg; dcwleong001@mymail.sim.edu.sg; mhjlee001@mymail.sim.edu.sg; zydng001@mymail.sim.edu.sg; zygsiew001@mymail.sim.edu.sg; yxtan046@mymail.sim.edu.sg; zyloh004@mymail.sim.edu.sg; ezeho001@mymail.sim.edu.sg; jspoh001@mymail.sim.edu.sg; ywng010@mymail.sim.edu.sg; rchen012@mymail.sim.edu.sg; wnchong001@mymail.sim.edu.sg; gmjpang001@mymail.sim.edu.sg; yyling001@mymail.sim.edu.sg; yqng015@mymail.sim.edu.sg; gtwong002@mymail.sim.edu.sg; bxcltay001@mymail.sim.edu.sg; cchzjcha001@mymail.sim.edu.sg; hsbho002@mymail.sim.edu.sg; zhuang045@mymail.sim.edu.sg; jahirhm001@mymail.sim.edu.sg; jbtphang001@mymail.sim.edu.sg; jyxng003@mymail.sim.edu.sg; lwhrng001@mymail.sim.edu.sg; syckwek001@mymail.sim.edu.sg; sivaprak003@mymail.sim.edu.sg; tthho001@mymail.sim.edu.sg; ncchia001@mymail.sim.edu.sg; cystoh003@mymail.sim.edu.sg; wrjang001@mymail.sim.edu.sg; jyschan001@mymail.sim.edu.sg; jhlim059@mymail.sim.edu.sg; wxteo006@mymail.sim.edu.sg; zyang034@mymail.sim.edu.sg; jxong013@mymail.sim.edu.sg; tkhau001@mymail.sim.edu.sg; jwtan053@mymail.sim.edu.sg; d011@mymail.sim.edu.sg; rzhang016@mymail.sim.edu.sg; wcchau001@mymail.sim.edu.sg; venkatas001@mymail.sim.edu.sg; nuranf001@mymail.sim.edu.sg; muhammad745@mymail.sim.edu.sg; yxong011@mymail.sim.edu.sg; gzhong002@mymail.sim.edu.sg; twwong006@mymail.sim.edu.sg; tchan005@mymail.sim.edu.sg; ychen067@mymail.sim.edu.sg; seol002@mymail.sim.edu.sg; jlwong008@mymail.sim.edu.sg; iyzsoon001@mymail.sim.edu.sg; natchath001@mymail.sim.edu.sg; martinez003@mymail.sim.edu.sg; jdyloh001@mymail.sim.edu.sg; kathima001@mymail.sim.edu.sg; waiy002@mymail.sim.edu.sg; zinha001@mymail.sim.edu.sg; xyang042@mymail.sim.edu.sg; wychow001@mymail.sim.edu.sg; gygoh001@mymail.sim.edu.sg; mkkmkhon001@mymail.sim.edu.sg; kyawtl001@mymail.sim.edu.sg; yzdlim001@mymail.sim.edu.sg; yshywah001@mymail.sim.edu.sg; mswsiew001@mymail.sim.edu.sg; tbws9423001@mymail.sim.edu.sg; djsang001@mymail.sim.edu.sg; yamt002@mymail.sim.edu.sg; zyjchan001@mymail.sim.edu.sg; jxin001@mymail.sim.edu.sg
+Cc: premrajan_p@yahoo.com; SH Tian ; pk loo ; Japit Sionggo ; Sujati Sastro ; Kheng Teck Tan ; kkeesg@yahoo.com.sg
+Subject: RE: CSIT321 Project FYP Apr 2021
+Dear students,
+The prototype presentation slots for this Saturday are as below.
+Time
+Tian Sion Hui
+Japit Sionggo
+Tan Kheng Teck
+Dr PK Loo
+Premarajan
+8:30
+FYP-21-S2-14
+FYP-21-S2-07
+FYP-21-S2-01
+FYP-21-S2-27
+FYP-21-S2-20
+9:00
+FYP-21-S2-15
+FYP-21-S2-08
+FYP-21-S2-02
+FYP-21-S2-28
+FYP-21-S2-21
+9:30
+FYP-21-S2-16
+FYP-21-S2-09
+FYP-21-S2-03
+FYP-21-S2-29
+FYP-21-S2-22
+10:00
+FYP-21-S2-17
+FYP-21-S2-10
+FYP-21-S2-04
+FYP-21-S2-30
+FYP-21-S2-23
+10:30
+FYP-21-S2-18
+FYP-21-S2-11
+FYP-21-S2-05
+FYP-21-S2-31
+FYP-21-S2-24
+11:00
+FYP-21-S2-19P
+FYP-21-S2-12P
+FYP-21-S2-06P
+FYP-21-S2-32P
+FYP-21-S2-25
+11:30
+FYP-21-S2-13P
+FYP-21-S2-26P
+The second lecture will be at 3:30pm conducted by Dr Loo Poh Kok, he will provide the online link to the lecture shortly.
+Note that you are to strictly adhere to the 30mins duration as there are other teams presenting after your team.
+Best regards,
+Bernard
+From: Bernard Sin Yi-Liang
+Sent: Monday, February 22, 2021 4:47 PM
+To: 'zzmok001@mymail.sim.edu.sg' &gt;; 'bcteo001@mymail.sim.edu.sg' &gt;; 'jchen089@mymail.sim.edu.sg' &gt;; 'hadinr001@mymail.sim.edu.sg' &gt;; 'le064@mymail.sim.edu.sg' &gt;; 'agarwal042@mymail.sim.edu.sg' &gt;; 'ahkh001@mymail.sim.edu.sg' &gt;; 'anbu001@mymail.sim.edu.sg' &gt;; 'bhadkamk001@mymail.sim.edu.sg' &gt;; 'bwskhor001@mymail.sim.edu.sg' &gt;; 'chhajlan001@mymail.sim.edu.sg' &gt;; 'arora014@mymail.sim.edu.sg' &gt;; 'mliang003@mymail.sim.edu.sg' &gt;; 'sangelin002@mymail.sim.edu.sg' &gt;; 'mxtong001@mymail.sim.edu.sg' &gt;; 'vs001@mymail.sim.edu.sg' &gt;; 'nguyen280@mymail.sim.edu.sg' &gt;; 'jng038@mymail.sim.edu.sg' &gt;; 'icchen002@mymail.sim.edu.sg' &gt;; 'mlazuard001@mymail.sim.edu.sg' &gt;; 'kjtay002@mymail.sim.edu.sg' &gt;; 'jytio001@mymail.sim.edu.sg' &gt;; 'ezhchew001@mymail.sim.edu.sg' &gt;; 'kmanuel001@mymail.sim.edu.sg' &gt;; 'jchzchun001@mymail.sim.edu.sg' &gt;; 'qxawu001@mymail.sim.edu.sg' &gt;; 'kowong001@mymail.sim.edu.sg' &gt;; 'dhcho001@mymail.sim.edu.sg' &gt;; 'muhammad764@mymail.sim.edu.sg' &gt;; 'kpang002@mymail.sim.edu.sg' &gt;; 'mqglim001@mymail.sim.edu.sg' &gt;; 'le067@mymail.sim.edu.sg' &gt;; 'sjtan045@mymail.sim.edu.sg' &gt;; 'hmchun001@mymail.sim.edu.sg' &gt;; 'xynlim001@mymail.sim.edu.sg' &gt;; 'jmneo002@mymail.sim.edu.sg' &gt;; 'ljlgeral001@mymail.sim.edu.sg' &gt;; 'kfegoh001@mymail.sim.edu.sg' &gt;; 'hsusanto002@mymail.sim.edu.sg' &gt;; 'cyoh001@mymail.sim.edu.sg' &gt;; 'scsser001@mymail.sim.edu.sg' &gt;; 'jhpoh004@mymail.sim.edu.sg' &gt;; 'yygoh010@mymail.sim.edu.sg' &gt;; 'ehshue001@mymail.sim.edu.sg' &gt;; 'rqong002@mymail.sim.edu.sg' &gt;; 'jjdlee002@mymail.sim.edu.sg' &gt;; 'phxin001@mymail.sim.edu.sg' &gt;; 'wjlai002@mymail.sim.edu.sg' &gt;; 'wchua015@mymail.sim.edu.sg' &gt;; 'ixytan001@mymail.sim.edu.sg' &gt;; 'jjyquek001@mymail.sim.edu.sg' &gt;; 'whlim020@mymail.sim.edu.sg' &gt;; 'msin002@mymail.sim.edu.sg' &gt;; 'jjong019@mymail.sim.edu.sg' &gt;; 'kmteh001@mymail.sim.edu.sg' &gt;; 'kwcwoo001@mymail.sim.edu.sg' &gt;; 'sjyong001@mymail.sim.edu.sg' &gt;; 'mpjho001@mymail.sim.edu.sg' &gt;; 'wjjchua002@mymail.sim.edu.sg' &gt;; 'rzxlai001@mymail.sim.edu.sg' &gt;; 'ngjong001@mymail.sim.edu.sg' &gt;; 'cldtay001@mymail.sim.edu.sg' &gt;; 'jxdtan004@mymail.sim.edu.sg' &gt;; 'whwong018@mymail.sim.edu.sg' &gt;; 'njyheng001@mymail.sim.edu.sg' &gt;; 'wjpoon001@mymail.sim.edu.sg' &gt;; 'wzlow003@mymail.sim.edu.sg' &gt;; 'dat001@mymail.sim.edu.sg' &gt;; 'jdtan005@mymail.sim.edu.sg' &gt;; 'jhlee034@mymail.sim.edu.sg' &gt;; 'wschua008@mymail.sim.edu.sg' &gt;; 'awsetiaw001@mymail.sim.edu.sg' &gt;; 'bcsugian001@mymail.sim.edu.sg' &gt;; 'fcwlow001@mymail.sim.edu.sg' &gt;; 'swadharm001@mymail.sim.edu.sg' &gt;; 'jhkhoo006@mymail.sim.edu.sg' &gt;; 'khlee014@mymail.sim.edu.sg' &gt;; 'zliu031@mymail.sim.edu.sg' &gt;; 'rpranaya001@mymail.sim.edu.sg' &gt;; 'thamotha001@mymail.sim.edu.sg' &gt;; 'muhammad747@mymail.sim.edu.sg' &gt;; 'jkong010@mymail.sim.edu.sg' &gt;; 'jlow013@mymail.sim.edu.sg' &gt;; 'sjtoh001@mymail.sim.edu.sg' &gt;; 'yyiyeo001@mymail.sim.edu.sg' &gt;; 'kwon004@mymail.sim.edu.sg' &gt;; 'cyjloh001@mymail.sim.edu.sg' &gt;; 'shinpsk001@mymail.sim.edu.sg' &gt;; 'jsleong003@mymail.sim.edu.sg' &gt;; 'jmma002@mymail.sim.edu.sg' &gt;; 'mazlan005@mymail.sim.edu.sg' &gt;; 'muhammad762@mymail.sim.edu.sg' &gt;; 'hzdng002@mymail.sim.edu.sg' &gt;; 'rnawingg001@mymail.sim.edu.sg' &gt;; 'yhtiang001@mymail.sim.edu.sg' &gt;; 'nairduh001@mymail.sim.edu.sg' &gt;; 'hay003@mymail.sim.edu.sg' &gt;; 'dcwleong001@mymail.sim.edu.sg' &gt;; 'mhjlee001@mymail.sim.edu.sg' &gt;; 'zydng001@mymail.sim.edu.sg' &gt;; 'zygsiew001@mymail.sim.edu.sg' &gt;; 'yxtan046@mymail.sim.edu.sg' &gt;; 'zyloh004@mymail.sim.edu.sg' &gt;; 'ezeho001@mymail.sim.edu.sg' &gt;; 'jspoh001@mymail.sim.edu.sg' &gt;; 'ywng010@mymail.sim.edu.sg' &gt;; 'rchen012@mymail.sim.edu.sg' &gt;; 'wnchong001@mymail.sim.edu.sg' &gt;; 'gmjpang001@mymail.sim.edu.sg' &gt;; 'yyling001@mymail.sim.edu.sg' &gt;; 'yqng015@mymail.sim.edu.sg' &gt;; 'gtwong002@mymail.sim.edu.sg' &gt;; 'bxcltay001@mymail.sim.edu.sg' &gt;; 'cchzjcha001@mymail.sim.edu.sg' &gt;; 'hsbho002@mymail.sim.edu.sg' &gt;; 'zhuang045@mymail.sim.edu.sg' &gt;; 'jahirhm001@mymail.sim.edu.sg' &gt;; 'jbtphang001@mymail.sim.edu.sg' &gt;; 'jyxng003@mymail.sim.edu.sg' &gt;; 'lwhrng001@mymail.sim.edu.sg' &gt;; 'syckwek001@mymail.sim.edu.sg' &gt;; 'sivaprak003@mymail.sim.edu.sg' &gt;; 'tthho001@mymail.sim.edu.sg' &gt;; 'ncchia001@mymail.sim.edu.sg' &gt;; 'cystoh003@mymail.sim.edu.sg' &gt;; 'wrjang001@mymail.sim.edu.sg' &gt;; 'jyschan001@mymail.sim.edu.sg' &gt;; 'jhlim059@mymail.sim.edu.sg' &gt;; 'wxteo006@mymail.sim.edu.sg' &gt;; 'zyang034@mymail.sim.edu.sg' &gt;; 'jxong013@mymail.sim.edu.sg' &gt;; 'tkhau001@mymail.sim.edu.sg' &gt;; 'jwtan053@mymail.sim.edu.sg' &gt;; 'd011@mymail.sim.edu.sg' &gt;; 'rzhang016@mymail.sim.edu.sg' &gt;; 'wcchau001@mymail.sim.edu.sg' &gt;; 'venkatas001@mymail.sim.edu.sg' &gt;; 'nuranf001@mymail.sim.edu.sg' &gt;; 'muhammad745@mymail.sim.edu.sg' &gt;; 'yxong011@mymail.sim.edu.sg' &gt;; 'gzhong002@mymail.sim.edu.sg' &gt;; 'twwong006@mymail.sim.edu.sg' &gt;; 'tchan005@mymail.sim.edu.sg' &gt;; 'ychen067@mymail.sim.edu.sg' &gt;; 'seol002@mymail.sim.edu.sg' &gt;; 'jlwong008@mymail.sim.edu.sg' &gt;; 'iyzsoon001@mymail.sim.edu.sg' &gt;; 'natchath001@mymail.sim.edu.sg' &gt;; 'martinez003@mymail.sim.edu.sg' &gt;; 'jdyloh001@mymail.sim.edu.sg' &gt;; 'kathima001@mymail.sim.edu.sg' &gt;; 'waiy002@mymail.sim.edu.sg' &gt;; 'zinha001@mymail.sim.edu.sg' &gt;; 'xyang042@mymail.sim.edu.sg' &gt;; 'wychow001@mymail.sim.edu.sg' &gt;; 'gygoh001@mymail.sim.edu.sg' &gt;; 'mkkmkhon001@mymail.sim.edu.sg' &gt;; 'kyawtl001@mymail.sim.edu.sg' &gt;; 'yzdlim001@mymail.sim.edu.sg' &gt;; 'yshywah001@mymail.sim.edu.sg' &gt;; 'mswsiew001@mymail.sim.edu.sg' &gt;; 'tbws9423001@mymail.sim.edu.sg' &gt;; 'djsang001@mymail.sim.edu.sg' &gt;; 'yamt002@mymail.sim.edu.sg' &gt;; 'zyjchan001@mymail.sim.edu.sg' &gt;; 'jxin001@mymail.sim.edu.sg' &gt;
+Cc: 'premrajan_p@yahoo.com' &gt;; 'SH Tian' &gt;; 'pk loo' &gt;; 'Japit Sionggo' &gt;; 'Sujati Sastro' &gt;; 'Kheng Teck Tan' &gt;; 'kkeesg@yahoo.com.sg' &gt;; Patricia Wong Yoke Kin &gt;; Pearlyn Poh Wei Tse &gt;
+Subject: CSIT321 Project FYP Apr 2021
+Dear Students,
+CSIT321 PROJECT S2 '2021 (Duration: 6 months)
+PHASE 1: Apr - Jun 2021
+PHASE 2: Jul - Sept 2021
+You are towards the next phases of your study for the UOW program at SIM, and hence you will be commencing the capstone module : CSIT321 Project
+It is compulsory that you attend ALL the FYP lectures as the assessor will detail the requirements and the timeline of the project. The 1st lecture for the Phase 1 will be held as follows:
+COMMENCEMENT and 1ST LECTURE
+Date : 3 April 2021 (Saturday)
+Time : 3.30pm - 6.30pm
+Venue : Online
+Lecturer : Mr Japit Sionggo
+SELECTING YOUR PROJECT TOPICS:
+Decide on THREE of your project topics from CSIT-21-S2-01 to 27 in the attached pdf document. Using the attached Student Topic Selection form, perform the following steps:
+1.       Step 1 : Choose your degree programme from the dropdown list by clicking inside the pink box (to indicate if you are a Full time or Part time student)
+2.       Step 2 : Complete ALL the student particulars field in the blue boxes (please check that all details are correct especially SIM email and UOW student number)
+3.       Step 3 : Choose project topic from the dropdown list by clicking the individual green boxes
+*       Incomplete and incorrect information on selection form will not be processed and will be returned to students for amendment
+Submit your completed Student Topic Selection Form by replying to this email : bernardsin@sim.edu.sg , using your SIM Mymail only.
+We have included your private email to serve strictly as a notification and bring this to your attention, please do not reply using your private email.
+We may not receive any submission using private email and may be deemed invalid as it may be directed to our junk mail folder.
+SUBMISSION
+Deadline for submission of topics: 1 March 2021 Monday, 12 noon
+REMINDER
+1.       You are NOT allowed to form your own project group as UOW will confirm your topic, group members and project supervisor / assessors by 31 March 2021, Wednesday.
+2.       UOW will NOT assign topics and groups for students that failed to submit their preferred topics by the stipulated deadline.
+3.       Students who are still waiting for their S1 '2021 exam results will still need to submit their FYP topics by the required deadline.
+4.       If you fail the subject/s and are not eligible to undertake FYP, UOW will exclude your enrolment accordingly.
+5.       For students that wishes to drop / postpone the CSIT321 FYP module this coming term, you must reply to inform that you are not taking the module and copy mail to pearlynpoh@sim.edu.sg UOW SOLS ONLINE ENROLMENT for CSIT321 PROJECT
+Enrolment Start Date : 1 March 2021
+Enrolment End Date : 3 April 2021
+For withdrawal of CSIT321 module, please refer to the important notes and stipulated deadline as published on SIMConnect under "Enrolment Information 2021".
+Kind regards,
+Bernard Sin
+Senior Officer | Higher Education
+[https://heartbeat/corporatecommunications/CCD/Logo_GE.jpg]
+Singapore Institute of Management
+461 Clementi Road, Singapore 599491
+T: 65 6248 9728 | F: +65 6462 9263 | www.simge.edu.sg Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>'image001.jpg'</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RE: CSIT321 Project FYP Apr 2021</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Bernard Sin Yi-Liang &lt;Bernardsin@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Dear students,
+The prototype presentation slots for this Saturday are as below.
+Time
+Tian Sion Hui
+Japit Sionggo
+Tan Kheng Teck
+Dr PK Loo
+Premarajan
+8:30
+FYP-21-S2-14
+FYP-21-S2-07
+FYP-21-S2-01
+FYP-21-S2-27
+FYP-21-S2-20
+9:00
+FYP-21-S2-15
+FYP-21-S2-08
+FYP-21-S2-02
+FYP-21-S2-28
+FYP-21-S2-21
+9:30
+FYP-21-S2-16
+FYP-21-S2-09
+FYP-21-S2-03
+FYP-21-S2-29
+FYP-21-S2-22
+10:00
+FYP-21-S2-17
+FYP-21-S2-10
+FYP-21-S2-04
+FYP-21-S2-30
+FYP-21-S2-23
+10:30
+FYP-21-S2-18
+FYP-21-S2-11
+FYP-21-S2-05
+FYP-21-S2-31
+FYP-21-S2-24
+11:00
+FYP-21-S2-19P
+FYP-21-S2-12P
+FYP-21-S2-06P
+FYP-21-S2-32P
+FYP-21-S2-25
+11:30
+FYP-21-S2-13P
+FYP-21-S2-26P
+The second lecture will be at 3:30pm conducted by Dr Loo Poh Kok, he will provide the online link to the lecture shortly.
+Note that you are to strictly adhere to the 30mins duration as there are other teams presenting after your team.
+Best regards,
+Bernard
+From: Bernard Sin Yi-Liang
+Sent: Monday, February 22, 2021 4:47 PM
+To: 'zzmok001@mymail.sim.edu.sg' ; 'bcteo001@mymail.sim.edu.sg' ; 'jchen089@mymail.sim.edu.sg' ; 'hadinr001@mymail.sim.edu.sg' ; 'le064@mymail.sim.edu.sg' ; 'agarwal042@mymail.sim.edu.sg' ; 'ahkh001@mymail.sim.edu.sg' ; 'anbu001@mymail.sim.edu.sg' ; 'bhadkamk001@mymail.sim.edu.sg' ; 'bwskhor001@mymail.sim.edu.sg' ; 'chhajlan001@mymail.sim.edu.sg' ; 'arora014@mymail.sim.edu.sg' ; 'mliang003@mymail.sim.edu.sg' ; 'sangelin002@mymail.sim.edu.sg' ; 'mxtong001@mymail.sim.edu.sg' ; 'vs001@mymail.sim.edu.sg' ; 'nguyen280@mymail.sim.edu.sg' ; 'jng038@mymail.sim.edu.sg' ; 'icchen002@mymail.sim.edu.sg' ; 'mlazuard001@mymail.sim.edu.sg' ; 'kjtay002@mymail.sim.edu.sg' ; 'jytio001@mymail.sim.edu.sg' ; 'ezhchew001@mymail.sim.edu.sg' ; 'kmanuel001@mymail.sim.edu.sg' ; 'jchzchun001@mymail.sim.edu.sg' ; 'qxawu001@mymail.sim.edu.sg' ; 'kowong001@mymail.sim.edu.sg' ; 'dhcho001@mymail.sim.edu.sg' ; 'muhammad764@mymail.sim.edu.sg' ; 'kpang002@mymail.sim.edu.sg' ; 'mqglim001@mymail.sim.edu.sg' ; 'le067@mymail.sim.edu.sg' ; 'sjtan045@mymail.sim.edu.sg' ; 'hmchun001@mymail.sim.edu.sg' ; 'xynlim001@mymail.sim.edu.sg' ; 'jmneo002@mymail.sim.edu.sg' ; 'ljlgeral001@mymail.sim.edu.sg' ; 'kfegoh001@mymail.sim.edu.sg' ; 'hsusanto002@mymail.sim.edu.sg' ; 'cyoh001@mymail.sim.edu.sg' ; 'scsser001@mymail.sim.edu.sg' ; 'jhpoh004@mymail.sim.edu.sg' ; 'yygoh010@mymail.sim.edu.sg' ; 'ehshue001@mymail.sim.edu.sg' ; 'rqong002@mymail.sim.edu.sg' ; 'jjdlee002@mymail.sim.edu.sg' ; 'phxin001@mymail.sim.edu.sg' ; 'wjlai002@mymail.sim.edu.sg' ; 'wchua015@mymail.sim.edu.sg' ; 'ixytan001@mymail.sim.edu.sg' ; 'jjyquek001@mymail.sim.edu.sg' ; 'whlim020@mymail.sim.edu.sg' ; 'msin002@mymail.sim.edu.sg' ; 'jjong019@mymail.sim.edu.sg' ; 'kmteh001@mymail.sim.edu.sg' ; 'kwcwoo001@mymail.sim.edu.sg' ; 'sjyong001@mymail.sim.edu.sg' ; 'mpjho001@mymail.sim.edu.sg' ; 'wjjchua002@mymail.sim.edu.sg' ; 'rzxlai001@mymail.sim.edu.sg' ; 'ngjong001@mymail.sim.edu.sg' ; 'cldtay001@mymail.sim.edu.sg' ; 'jxdtan004@mymail.sim.edu.sg' ; 'whwong018@mymail.sim.edu.sg' ; 'njyheng001@mymail.sim.edu.sg' ; 'wjpoon001@mymail.sim.edu.sg' ; 'wzlow003@mymail.sim.edu.sg' ; 'dat001@mymail.sim.edu.sg' ; 'jdtan005@mymail.sim.edu.sg' ; 'jhlee034@mymail.sim.edu.sg' ; 'wschua008@mymail.sim.edu.sg' ; 'awsetiaw001@mymail.sim.edu.sg' ; 'bcsugian001@mymail.sim.edu.sg' ; 'fcwlow001@mymail.sim.edu.sg' ; 'swadharm001@mymail.sim.edu.sg' ; 'jhkhoo006@mymail.sim.edu.sg' ; 'khlee014@mymail.sim.edu.sg' ; 'zliu031@mymail.sim.edu.sg' ; 'rpranaya001@mymail.sim.edu.sg' ; 'thamotha001@mymail.sim.edu.sg' ; 'muhammad747@mymail.sim.edu.sg' ; 'jkong010@mymail.sim.edu.sg' ; 'jlow013@mymail.sim.edu.sg' ; 'sjtoh001@mymail.sim.edu.sg' ; 'yyiyeo001@mymail.sim.edu.sg' ; 'kwon004@mymail.sim.edu.sg' ; 'cyjloh001@mymail.sim.edu.sg' ; 'shinpsk001@mymail.sim.edu.sg' ; 'jsleong003@mymail.sim.edu.sg' ; 'jmma002@mymail.sim.edu.sg' ; 'mazlan005@mymail.sim.edu.sg' ; 'muhammad762@mymail.sim.edu.sg' ; 'hzdng002@mymail.sim.edu.sg' ; 'rnawingg001@mymail.sim.edu.sg' ; 'yhtiang001@mymail.sim.edu.sg' ; 'nairduh001@mymail.sim.edu.sg' ; 'hay003@mymail.sim.edu.sg' ; 'dcwleong001@mymail.sim.edu.sg' ; 'mhjlee001@mymail.sim.edu.sg' ; 'zydng001@mymail.sim.edu.sg' ; 'zygsiew001@mymail.sim.edu.sg' ; 'yxtan046@mymail.sim.edu.sg' ; 'zyloh004@mymail.sim.edu.sg' ; 'ezeho001@mymail.sim.edu.sg' ; 'jspoh001@mymail.sim.edu.sg' ; 'ywng010@mymail.sim.edu.sg' ; 'rchen012@mymail.sim.edu.sg' ; 'wnchong001@mymail.sim.edu.sg' ; 'gmjpang001@mymail.sim.edu.sg' ; 'yyling001@mymail.sim.edu.sg' ; 'yqng015@mymail.sim.edu.sg' ; 'gtwong002@mymail.sim.edu.sg' ; 'bxcltay001@mymail.sim.edu.sg' ; 'cchzjcha001@mymail.sim.edu.sg' ; 'hsbho002@mymail.sim.edu.sg' ; 'zhuang045@mymail.sim.edu.sg' ; 'jahirhm001@mymail.sim.edu.sg' ; 'jbtphang001@mymail.sim.edu.sg' ; 'jyxng003@mymail.sim.edu.sg' ; 'lwhrng001@mymail.sim.edu.sg' ; 'syckwek001@mymail.sim.edu.sg' ; 'sivaprak003@mymail.sim.edu.sg' ; 'tthho001@mymail.sim.edu.sg' ; 'ncchia001@mymail.sim.edu.sg' ; 'cystoh003@mymail.sim.edu.sg' ; 'wrjang001@mymail.sim.edu.sg' ; 'jyschan001@mymail.sim.edu.sg' ; 'jhlim059@mymail.sim.edu.sg' ; 'wxteo006@mymail.sim.edu.sg' ; 'zyang034@mymail.sim.edu.sg' ; 'jxong013@mymail.sim.edu.sg' ; 'tkhau001@mymail.sim.edu.sg' ; 'jwtan053@mymail.sim.edu.sg' ; 'd011@mymail.sim.edu.sg' ; 'rzhang016@mymail.sim.edu.sg' ; 'wcchau001@mymail.sim.edu.sg' ; 'venkatas001@mymail.sim.edu.sg' ; 'nuranf001@mymail.sim.edu.sg' ; 'muhammad745@mymail.sim.edu.sg' ; 'yxong011@mymail.sim.edu.sg' ; 'gzhong002@mymail.sim.edu.sg' ; 'twwong006@mymail.sim.edu.sg' ; 'tchan005@mymail.sim.edu.sg' ; 'ychen067@mymail.sim.edu.sg' ; 'seol002@mymail.sim.edu.sg' ; 'jlwong008@mymail.sim.edu.sg' ; 'iyzsoon001@mymail.sim.edu.sg' ; 'natchath001@mymail.sim.edu.sg' ; 'martinez003@mymail.sim.edu.sg' ; 'jdyloh001@mymail.sim.edu.sg' ; 'kathima001@mymail.sim.edu.sg' ; 'waiy002@mymail.sim.edu.sg' ; 'zinha001@mymail.sim.edu.sg' ; 'xyang042@mymail.sim.edu.sg' ; 'wychow001@mymail.sim.edu.sg' ; 'gygoh001@mymail.sim.edu.sg' ; 'mkkmkhon001@mymail.sim.edu.sg' ; 'kyawtl001@mymail.sim.edu.sg' ; 'yzdlim001@mymail.sim.edu.sg' ; 'yshywah001@mymail.sim.edu.sg' ; 'mswsiew001@mymail.sim.edu.sg' ; 'tbws9423001@mymail.sim.edu.sg' ; 'djsang001@mymail.sim.edu.sg' ; 'yamt002@mymail.sim.edu.sg' ; 'zyjchan001@mymail.sim.edu.sg' ; 'jxin001@mymail.sim.edu.sg' Cc: 'premrajan_p@yahoo.com' ; 'SH Tian' ; 'pk loo' ; 'Japit Sionggo' ; 'Sujati Sastro' ; 'Kheng Teck Tan' ; 'kkeesg@yahoo.com.sg' ; Patricia Wong Yoke Kin ; Pearlyn Poh Wei Tse Subject: CSIT321 Project FYP Apr 2021
+Dear Students,
+CSIT321 PROJECT S2 '2021 (Duration: 6 months)
+PHASE 1: Apr - Jun 2021
+PHASE 2: Jul - Sept 2021
+You are towards the next phases of your study for the UOW program at SIM, and hence you will be commencing the capstone module : CSIT321 Project
+It is compulsory that you attend ALL the FYP lectures as the assessor will detail the requirements and the timeline of the project. The 1st lecture for the Phase 1 will be held as follows:
+COMMENCEMENT and 1ST LECTURE
+Date : 3 April 2021 (Saturday)
+Time : 3.30pm - 6.30pm
+Venue : Online
+Lecturer : Mr Japit Sionggo
+SELECTING YOUR PROJECT TOPICS:
+Decide on THREE of your project topics from CSIT-21-S2-01 to 27 in the attached pdf document. Using the attached Student Topic Selection form, perform the following steps:
+1.       Step 1 : Choose your degree programme from the dropdown list by clicking inside the pink box (to indicate if you are a Full time or Part time student)
+2.       Step 2 : Complete ALL the student particulars field in the blue boxes (please check that all details are correct especially SIM email and UOW student number)
+3.       Step 3 : Choose project topic from the dropdown list by clicking the individual green boxes
+*       Incomplete and incorrect information on selection form will not be processed and will be returned to students for amendment
+Submit your completed Student Topic Selection Form by replying to this email : bernardsin@sim.edu.sg , using your SIM Mymail only.
+We have included your private email to serve strictly as a notification and bring this to your attention, please do not reply using your private email.
+We may not receive any submission using private email and may be deemed invalid as it may be directed to our junk mail folder.
+SUBMISSION
+Deadline for submission of topics: 1 March 2021 Monday, 12 noon
+REMINDER
+1.       You are NOT allowed to form your own project group as UOW will confirm your topic, group members and project supervisor / assessors by 31 March 2021, Wednesday.
+2.       UOW will NOT assign topics and groups for students that failed to submit their preferred topics by the stipulated deadline.
+3.       Students who are still waiting for their S1 '2021 exam results will still need to submit their FYP topics by the required deadline.
+4.       If you fail the subject/s and are not eligible to undertake FYP, UOW will exclude your enrolment accordingly.
+5.       For students that wishes to drop / postpone the CSIT321 FYP module this coming term, you must reply to inform that you are not taking the module and copy mail to pearlynpoh@sim.edu.sg UOW SOLS ONLINE ENROLMENT for CSIT321 PROJECT
+Enrolment Start Date : 1 March 2021
+Enrolment End Date : 3 April 2021
+For withdrawal of CSIT321 module, please refer to the important notes and stipulated deadline as published on SIMConnect under "Enrolment Information 2021".
+Kind regards,
+Bernard Sin
+Senior Officer | Higher Education
+[https://heartbeat/corporatecommunications/CCD/Logo_GE.jpg]
+Singapore Institute of Management
+461 Clementi Road, Singapore 599491
+T: 65 6248 9728 | F: +65 6462 9263 | www.simge.edu.sg Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>'image001.jpg'</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Add your resume to get hired!</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Upcoming Events</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>You've joined the Azure_All_Active_Students group</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Azure_All_Active_Students &lt;Azure_All_Active_Students@mymail.sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Welcome Email Work Brilliantly Together Welcome to the Azure_All_Active_Students Group Azure_All_Active_Students_Applications_Access Private group with 16294 members +16289 View
+ group in Outlook Get started You're set to receive only replies and events in your inbox. Change this setting below, or anywhere you see the group in Outlook, to see all of this group's conversations. Follow
+ in inbox Get the conversation rolling Start your own. Or just catch up. All in the group inbox. Keep things together Now, your documents and attachments in one place. Stay on the same page Groups that take notes together, stay together. In the group notebook. Don't miss a thing Track milestones (and everything in between) in the group calendar. Collaborate with your group across Microsoft 365 Create content seamlessly The group's SharePoint team site is the place to share news, work on and organize content, manage rich data within lists, and track all site activities across all members. Check
+ it out Organize group work with Planner Planner makes it easy for your team to create new plans, organize and assign tasks, share files, chat about what you're working on, and get updates on progress. Check
+ it out Go further. Do more. Look here. Follow your Twitter feeds. Track your Salesforce updates. All your Trello cards, lists and boards. Team notifications from Jira. View
+ all connectors Microsoft Corporation One Microsoft Way Redmond, WA 98052 USA You are receiving this email because you have subscribed to Microsoft 365. Copyright 2020 Microsoft Corporation. Privacy Statement</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>'LogoM365.png'</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>92.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notification on Data Leak in Email to Students </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Selene Tan &lt;Selenetan@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Dear Students,
+We would like to inform you of an unfortunate data leak incident at SIM that involved your personal data.
+This incident took place on the evening of Monday, 31 May.  One of our staff inadvertently sent out an email from the SIM email system to a group of 206 SIM-University of Wollongong (UOW) students with an unencrypted file containing the personal data of 1,345 SIM-UOW students.  The data reflected in the list consist of the following: student name, National ID, Mymail email address and contact number.  You are among this group of 1,345 students, of which the 206 students are also part of.
+When we were notified of the mistake, we attempted a recall followed by a subsequent removal of the emails from our student email server.  We have also notified the Personal Data Protection Commission of this incident on 6 June.
+The level of risk of the data leakage is not assessed to be high as the email was sent to a closed group of students.  We have also instructed the 206 students who received the email to delete the same if they have not already done so, and not to forward or use the data in any way as it may amount to an offence.
+We want to assure you that we take data privacy and security very seriously, and the protection of our students' data is of utmost importance to us.  We apologise for this human error and any anxiety that this could cause you.  To ensure this will not happen again, we have started a thorough review to tighten our systems and internal processes, as well as to take measures to constantly remind our staff of the importance of careful handling of personal data.
+As always, please remain vigilant against any unsolicited phone calls, messages and emails which may be phishing attempts or scams, and to inform PDPC and SIM immediately should this happen. We also thank you for your kind understanding and cooperation in this matter.
+If you have any concern or query, please contact me at selenetan@sim.edu.sg .
+Regards,
+Selene Tan (Ms)
+[SIM.GE.SQ.2D.1C.jpg]
+Selene Tan
+Senior Manager l  Higher Education
+Singapore Institute of Management, 461 Clementi Road, Singapore 599491
+Tel: +65 6248 0246  l  Fax: +65 6462 9263  l  Web: www.simge.edu.sg [cid:3CC565E9-F112-4D28-8FE3-168D1A3B9C2A] Bring Out Your Best at SIM.
+Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>'image001.jpg'</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>66.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Make an Impact with Student Development!</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following activities/initiatives may interest you: 1. SIM Refer A Friend Programme We are happy to inform that SIM has launched our “SIM Refer A Friend Programme”! Refer your siblings, relatives and friends who are looking to study in Singapore for their Diploma, Degree or Masters programme, share your SIM learning journey and get rewarded!  For their programme application, they can approach our SIM staff for further assistance whenever needed. Access SIM Connect &gt; Resource &gt; Others &gt; Forms &gt; Referral Programme Form to download the form and terms and conditions. 2. SIM Philosophy Club Recruitment SIM Philosophy Club is open for recruitment! Looking for open minded friends to join us through https://project1095.simge.edu.sg/student-life/ Hope to see you join our flexible and friendly club! 3. Campus League 2021 – SIM Qualifiers Campus League will be hosting Wild Rift and Valorant Tournaments! The SIM qualifiers will be on 5 &amp; 6 June. If you are a solo player and do not have a team, the organising committee will assist you in finding a team. Sign up to get a chance to represent SIM and win fantastic prizes! Register here: https://survey.sim.edu.sg/simge/index.php/543382/lang-en 4 . SingTel PVP E-sports Regional Championships – SIM Qualifiers Represent SIM in the SingTel PVP E-sports tournament! Winners of the SIM Qualifiers will go on to compete in the grand finals. Qualifiers will be held on 19 &amp; 20 June Campus Championship, and the finals will be played on 4 &amp; 5 September 2021. If you are a solo player and do not have a team, the organising committee will assist you in finding a team. Sign up now at: https://survey.sim.edu.sg/simge/index.php/488922/lang-en To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>'20210604182104825RAFP_poster_1080x1920.png'</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>UOW IT Examination Schedule for Q2'2021_FT</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sarina Binte Samsuri &lt;Sarinas@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Dear Students,
+A gentle reminder, please check the Q2'21 examination schedule via SIMConnect as per instruction below:
+SIMConnect-&gt;UOW News (BComSciFT/ BBISFT) - 2021 Apr-Jun UOW Main and Supplementary Exam Schedule
+Please take note.
+All the best for your exam next week.
+Take care and stay safe!
+[SIM.GE.SQ.2D.1C.jpg]
+Sarina Samsuri
+Singapore Institute of Management, 461 Clementi Road, Singapore 599491
+Tel: +65 6248 0062  l  Fax: +65 6462 9263  l  Web: www.simge.edu.sg [cid:3CC565E9-F112-4D28-8FE3-168D1A3B9C2A] Bring Out Your Best at SIM.
+Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>'image001.jpg'</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>89.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Registrations Open for Micro-Credential Courses scheduled between
+ 17 Jun - 1 Jul</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following Micro-Credential Courses are scheduled between 17 June to 1 July 2021, registrations are now open. All courses by default are conducted Physically (in-person) on SIM Campus as of to-date . However, if additional safe management measures are to be put in place in view of COVID-19 situation, some of these courses will be conducted Online (students will be notified for the online arrangement prior to course commencement dates). All micro-credential courses are course fee payable. 1)      Introduction to Python Programming (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/introduction to-python-programming-ipp/ Level 1 – 17 June (Thu), 12.00pm – 3.00pm Level 2 – 24 June (Thu), 8.30am – 11.30am Level 3 – 24 June (Thu), 12.00pm – 3.00pm Level 4 – 28 June (Mon), 8.30am – 11.30am Level 5 – 28 June (Mon), 12.00pm – 3.00pm 2)       Microsoft Excel Basics (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/microsoft-excel-express/ Level 1 – 29 June (Tue), 12.00pm – 3.00pm Level 2 – 29 June (Tue), 3.30pm – 6.30pm Level 3 – 30 June (Wed), 8.30am – 11.30am Level 4 – 30 June (Wed), 12.00pm – 3.00pm Level 5 – 30 June (Wed), 3.30pm – 6.30pm 3)      Ethical Hacking (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/ethical-hacking/ Level 1 – 21 June (Mon), 12.00pm – 3.00pm Level 2 – 22 June (Tue), 8.30am – 11.30am Level 3 – 22 June (Tue), 12.00pm – 3.00pm Level 4 – 23 June (Wed), 8.30am – 11.30am Level 5 – 23 June (Wed), 12.00pm – 3.00pm 4)       Essential of ABSS Accounting Software (Course Fee : S$32.10, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/essentials-of-abss-accounting-software-part-1-of-5/ 23 June (Wed), 12.00pm – 3.00pm 5)        Introduction to Financial Technology (Course Fee : S$128.40 for 3 days, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/introduction-to-financial-technology/ 29, 30 June &amp; 1 July (Tue - Thu), 9am - 5pm daily 6)        Introduction to Artificial Intelligence (AI) (Course Fee : S$128.40 for 3 days, including GST) https://project1095.simge.edu.sg/centre-for-micro-credentials/courses-available/artificial-intelligence-ai-developer/ 22 to 24 June (Tue - Thu), 9am - 5pm daily Do note that each course has limited capacity, hence, registration will be closed once capacity is reached. To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro-Credentials. Select course in drop-down box – IPP Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g IPP Level 2). For details on course outline, registration opening dates, etc, please go to: -- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt;  click on Catalogue of Micro-credentials Courses &gt; Select any course title &gt; Click at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses in June 2021. For enquiries, please email CMC@sim.edu.sg Regards, Centre for Micro-Credentials SIM Global Education This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>96.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Be a Part of a Vibrant Student Life!</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following activity may interest you: SIM Sociology Club: Sub-committee Application 2021/2022 We are currently looking for passionate individuals that are willing to bring new ideas into the next chapter of the club. Come join us in the next adventure as we embark on a journey to raise civic consciousness and to offers a safe space for people to offer different perspectives in our complex society. Sign up here to be a part of our team!! https://survey.sim.edu.sg/simge/index.php/649811/lang-en Interview date will be confirmed through email. To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>'20210528192018221Soci_Loci.png'</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Upcoming Events</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Closed: Case ID 450698 (Attendance Appeal Request)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>noreply@simge.edu.sg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Dear YONG YU GOH Your attendance appeal request has been processed. Please proceed to Self Service - Student Center - View My Attendance (Academic Classes Attendance) or Personalised Timetable - List View (Others) (Event Attendance, e.g. Independent Study) to check the outcome of the appeal. As this is a system generated email, please do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>60.566666666699994%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Reminder on Compulsory Course/Program Evaluations</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Dear student, If you have not completed the course/ program evaluations for the subjects studied, we would need you to click on this link now to give us your ratings and comments related to your course, such as Subject Content, Lecturer Effectiveness, Programme Management, etc. Your inputs are very important in helping us assess the overall success of the programme and look into ways to improve our level of service to you. Please be assured that all information collected will be kept anonymous and will only be used for the purpose of analysis and improvements. If you have already done the evaluations, please ignore this message. Thank you Service Excellence (SVE) Department SIM Global Education</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>81.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Attendance Appeal for Q2'2021 (Apr to Jun) _ Full Time (Bachelor of
+ Bus Info Sys - BBIS)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sarina Binte Samsuri &lt;Sarinas@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Dear Students,
+We hope you are safe and well.
+Do be reminded that with regards to the attendance policy, local students will need to maintain a minimum of 80% attendance and International students 90% for all lectures and tutorials.
+Falling below the minimum percentage may result in consequences that are detailed in the SIMGE Student Handbook. The Handbook is readily accessed via SIMConnect in the Resources Tab.
+[cid:image005.jpg@01D750A2.2271DB10]
+For those of you who need to apply for attendance appeal, please do so by Friday, 04 June 2021, 1700hrs.
+Should you need assistance with navigating SIMConnect to submit your attendance appeal, please contact Student Services at 6248 9393.
+Take good care and stay safe!
+[SIM.GE.SQ.2D.1C.jpg]
+Sarina Samsuri
+Singapore Institute of Management, 461 Clementi Road, Singapore 599491
+Tel: +65 6248 0062  l  Fax: +65 6462 9263  l  Web: www.simge.edu.sg [cid:3CC565E9-F112-4D28-8FE3-168D1A3B9C2A] Bring Out Your Best at SIM.
+Privileged / Confidential information may be contained in this message. If you are not the intended recipient, you must not copy, distribute or use it for any purpose, nor disclose its contents to any other person. Please notify the sender immediately if you have received this in error.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>'image001.jpg'</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>69.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Reminder on Attendance Requirement</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Date: 21/05/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 83.87% as at 21/05/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>86.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Reminder on Attendance Requirement</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Date: 21/05/2021 Dear GOH YONG YU Reminder on Attendance Requirement To ensure that students derived maximum benefits from classes, learn effectively and do well for the course, students are required to attend at least 75% of all scheduled classes. According to our records, your attendance for current term is currently at 83.87% as at 21/05/2021. You could obtain more details of your attendance via SIMConnect. Do attend all classes henceforth. If you are unable to attend classes with valid reasons, please contact your programme executive for assistance. You should also submit to your programme executive documentary evidence for absenteeism (e.g. medical certificate). Any unauthorized absence could lead to disciplinary procedures ranging from formal warning to termination of studies. For any clarifications, please feel free to contact your programme executive or email to students@sim.edu.sg. Thank you and all the best in your studies. Please do not reply to this email. Warmest Regards, Programme Executive, Higher Education Division [This is a computer generated letter, no signature is required]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>86.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Compulsory Course/ Program Evaluations</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Dear student, The course/ program evaluations for the subjects which you have studied are opened now. You can click on this link now to give us your ratings and comments related to your course, such as Subject Content, Lecturer Effectiveness, Programme Management, etc. Your inputs are very important in helping us assess the overall success of the programme and look into ways to improve our level of service to you. Please be assured that all information collected will be kept anonymous and will only be used for the purpose of analysis and improvements. Thank you Service Excellence (SVE) Department SIM Global Education</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Be a Part of an Active Student Life!</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, 1. MCSIM Subcommittee Recruitment Drive Calling All Malaysian Students! ? MCSIM Subcommittee applications are now open! We are looking for passionate, committed and responsible Malaysian students who enjoy working in a team! ? ? If you can work remotely and are not in your final year, do not hesitate to join us and enrich your uni life! ? ? Benefits of becoming a subcommittee member: Gain practical experience of organising events Learn leadership and teamwork ? skills Certificate will be awarded ? ? Sign up through the QR code or via this link: https://tinyurl.com/MCSIMsubcomm2021 before 31st May, 12pm! To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development ? This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>'20210516222220206Subcomm_recruit_2021A.png'</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>91.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Upcoming Events</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Registrations Open for Micro-Credential Courses scheduled between
+ 25 May - 4 Jun</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following Micro-Credential Courses are scheduled between 25 May to 4 June 2021, registrations are now open. All courses are conducted physically (in-person) on SIM Campus. All micro-credential courses are course fee payable. 1) Essentials of QuickBooks Accounting Software (Course Fee : S$64.20 for ½ day, including GST) 25 May (Tue), 12.00pm to 6.30pm 2)      Introduction to Python Programming (Levels 1 - 5) (Course Fee : S$32.10 per level, including GST) Level 1 – 25 May (Tue), 8.30am – 11.30am Level 2 – 27 May (Thu), 8.30am – 11.30am Level 3 – 27 May (Thu), 12.00pm – 3.00pm Level 4 – 31 May (Mon), 8.30am – 11.30am Level 5 – 31 May (Mon), 12.00pm – 3.00pm 3)      Microsoft Excel Basics (Levels 1-5) (Course Fee : S$32.10 per level, including GST) Level 1 – 25 May (Tue), 12.00pm – 3.00pm Level 2 – 25 May (Tue), 3.30pm – 6.30pm Level 3 – 28 May (Fri), 8.30am – 11.30am Level 4 – 28 May (Fri), 12.00pm – 3.00pm Level 5 – 28 May (Fri), 3.30pm – 6.30pm 4)      Essentials of IDEA Software for Audit Data Analysis (Course Fee : S$64.20 for ½ day, including GST) 31 May (Mon), 12.00pm to 6.30pm 5)      Industry Analyst Programming (Course Fee : S$428 for 6 days, including GST) 31 May to 4 June (Mon - Fri) &amp; 10 Jun (Thu), 9am - 5pm daily 6)      Think Like A Designer - Problem Solving Skills for a Better Future (Course Fee : S$428 for 6 days, including GST) 31 May to 4 June (Mon - Fri) &amp; 11 Jun (Fri), 9am - 5pm daily 7)      Introduction to Financial Technology (Course Fee : S$128.40 for 3 days, including GST) 1 to 3 June (Tue - Thu), 9am - 5pm daily To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro-Credentials. Select course in drop-down box – IPP Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g IPP Level 2). For details on course outline, registration opening dates, etc, please go to: -- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt;  click on Catalogue of Micro-credentials Courses &gt; Select any course title &gt; Click at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses from May to June  2021. For enquiries, please email CMC@sim.edu.sg Regards, Centre for Micro-Credentials SIM Global Education This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Gain New Perspectives with Student Development!</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following activity may interest you: SIM Sociology Club :Virtual Dialogue Series: Let's Talk (6) – Women’s Rights Join us for a causal dialogue session with Ms Margaret Thomas of AWARE and Ms Faith Lum-Yu of ArtSE this coming Monday! Share your lived experiences and how we can be better, together! Date: 10 May 2021 Time: 8PM-10PM Platform: Zoom Sign-up now at: https://survey.sim.edu.sg/simge/index.php/259544/lang-en To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>'20210509164408861Sociology_Club-Let_s_Talk_6.png'</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>84.8666666667%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Care For the Community with Student Development!</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following activity may interest you: 1. SIM Students’ Christian Fellowship – “SG Unseen” Project 2021 “SG Unseen” an initiative by SIM Students' Christian Fellowship and in partnership with Homeless Hearts of Singapore. We are currently raising funds for the rough sleeping community in Singapore, through the sales of tote bags, bubble tea sleeves and stickers — all of which were designed by our very own SIM students! :) 100% of the proceeds will go to Homeless Hearts ? Do support us!! To order, please fill in this form by 7 May 2359: https://tinyurl.com/sgunseensales ! More details (designs, pricing, modes of collection) are in the form! If you have any further queries or are curious about the cause, feel free to email us at cf@mymail.sim.edu.sg and visit our SG Unseen Instagram Page (@sgunseen) ! To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>'20210501130038204FUndraiser_(1).png'</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>76.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Registrations Open for Micro-Credential Courses scheduled from 17 -
+ 21 May 2021</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following Micro-Credential Courses are scheduled from 17 to 21 May 2021, registrations are now open (closing date 5 May). All courses are conducted physically (in-person) on SIM Campus. All micro-credential courses are course fee payable. 1)    R Programming for Data Analysis (Levels 1-5) (Course Fee : S$32.10 per level, including GST) Level 1 – 17 May (Mon), 12.00pm – 3.00pm Level 2 – 18 May (Tue), 12.00pm – 3.00pm Level 3 – 19 May (Wed), 12.00pm – 3.00pm Level 4 – 20 May (Thu), 12.00pm – 3.00pm Level 5 – 21 May (Fri), 12.00pm – 3.00pm 2)    Introduction to Robotic Process Automation (Levels 1-5) (Course Fee : S$32.10 per level, including GST) Level 1 – 17 May (Mon), 8.30am – 11.30am Level 2 – 17 May (Mon), 12.00pm – 3.00pm Level 3 – 19 May (Wed), 8.30am – 11.30am Level 4 – 19 May (Wed), 12.00pm – 3.00pm Level 5 – 21 May (Fri), 8.30am – 11.30am To register: Log in to your SIMConnect account, go to My Apps -- Service Center -- Micro-Credentials. Select course in drop-down box – RPDA Level 1 (for example) –  then click submit. You will need to submit a separate case/course for the second level (e.g RPDA Level 2). For details on course outline, registration instructions, etc, please go to: -- https://project1095.simge.edu.sg/ &gt; select Centre for Micro-Credentials &gt; click on Catalogue of Micro-credentials Courses &gt; S elect any course title &gt; C lick at the bottom “see Course Schedule” . Remember to scroll down the page to see all available courses from April to June  2021. For enquiries, please email CMC@sim.edu.sg Regards, Centre for Micro-Credentials SIM Global Education This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Upcoming Events</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Take that First Step to an Enriching Student Life!</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following activities may interest you: 1. Environment &amp; Sustainability: How Will Our Future Look Like? Happy Earth Month! Climate change is a long-standing issue that is already causing dire consequences. Join us for a two-part dialogue where we are first joined by climate and environmental activists for a casual conversation on their motivations for climate action, their first-hand experiences, as well as the challenges they face while promoting their cause. Next, we will be joined by Mr Desmond Tan, Minister of State, Ministry of Sustainability and the Environment, to engage his expertise vis-à-vis the SG Green Plan 2030 and how policy at the national level is essential in tackling the global challenge. Join our conversation on Tuesday, 27th April 2021, 2.30pm to 6.30pm , at SIM HQ, Blk B, Level B2, Multipurpose Hall A1 , as we speak with a range of experienced panellists. Part 1 (Ground-up Movements): Mr Heng Li Seng, Founder of Green Nudge ( https://www.instagram.com/greennudgesg/?hl=en ) Ms Dorcas Tang, Climate Artivist, @earthtodorcas ( https://www.instagram.com/earthtodorcas/?hl=en ) Mr Yasser Amin, Cleanup Facilitator, Seastainable Co. ( https://www.instagram.com/seastainable.co/?hl=en ) Part 2 (Policy): Mr Desmond Tan, Minister of State, Ministry of Home Affairs &amp; Ministry of Sustainability &amp; the Environment Participants are expected to attend both segments as both discussions are complementary. Light refreshments will be provided during the intermission from 4pm to 5pm. Participants are strongly encouraged to bring their own mugs and bottles as disposable cups and bottled water will not be provided. Sharing of mugs and bottles are not allowed. To register, simply fill up this form ( https://tinyurl.com/FutureEnv2021 ) or scan the above QR code. Upon successful registration, a confirmation of your attendance and meeting details will be sent to your email closer to the event date. Do note that you will NOT be allowed to join the event unless you have received a confirmation email from us, due to venue quota restraints. Should you face any issues with the form or have any questions, do write to us at singaffairs@mymail.sim.edu.sg . We look forward to seeing you! SIM Singapore Affairs Society 2. SIM Board Games Society Game Session and Recruitment April 2021 3. SIM String Ensemble Auditions 2021 To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>'20210424194100368ESus_collage111.png'</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>55.366666666700006%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>&lt;ADV&gt; Complimentary SIM Online Masterclasses – Sign up now!</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>"SIM Global Education" &lt;study@sim.edu.sg&gt;</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Dear YONG YU , Join us on the 24 Apr, Sat for an exclusive series of online Masterclasses led by esteemed academics from globally-recognised universities. Get a glimpse into hot topics like Financial Risk Management &amp; the nature of Project Management across sectors. Saturday, 24 April 2021 Lessons in Effective Management from Major Projects by The University of Warwick This masterclass draws evidence from recent infrastructure projects across countries to identify common themes for success and failure. The class will also discuss the role of engineers and supply chain professionals in the delivery of major projects. 4.00pm - 5.00pm Risk Reboot: The Elevation of Financial Risk Management by University of Birmingham The complex world we live in uncovers a changing risk landscape; It calls for the need to re-imagine and re-energise risk management for organisations and individuals. This masterclass will evaluate the nature of business risks supported by contemporary case studies. 5.15pm - 6.15pm Register Here Register Here Speakers: Lessons in Effective Management from Major Projects Mr Mike Newton Director of Overseas Programmes WMG The University of Warwick Michael is Director of Overseas Programmes with WMG and an active member of the Association for Project Management (APM). He has taught operations management and project management at Masters level for the last twenty-four years and lectured extensively overseas. In 2011, he was invited by Beijing Academy of Science and Technology to become an acknowledged foreign expert for the purpose of teaching in China. Risk Reboot: The Elevation of Financial Risk Management Dr Rizwan Ahmed Lecturer in Finance Programme Director, MSc Financial Management (Singapore) Birmingham Business School, University of Birmingham Dr. Rizwan Ahmed is Lecturer (Assistant Professor) in Finance at University of Birmingham. Before joining University of Birmingham, he has wide teaching and research experience in various UK Universities as a lecturer and seminar leader, which includes Cardiff Business School, Birkbeck, University of London, University of Huddersfield, and University of Hull. It is worth mentioning that Rizwan is
+successfully holding Fellowship of HEA - UK in teaching. Rizwan has completed FinTech program from University of Oxford. We look forward to seeing you soon! Tel: +65 6248 9746 | Address: SIM HQ, 461 Clementi Road, Singapore 599491 Location Map | SIM Global Education | Facebook | Instagram | LinkedIn | Telegram If this email is found in your spam or junk mail, please shift this email into your main inbox and click 'allow HTML links' for the above links to work. Singapore Institute of Management Pte Ltd | CPE Registration Number: 199607747H | Period of Registration: 20 May 2018 - 19 May 2022 Please click here to unsubscribe if you do not wish to receive emails from this email address</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Get Active with Student Development!</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>noreply_simge@notice.sim.edu.sg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Dear GOH YONG YU, The following activities may interest you: 1. MCSIM Members Recruitment Calling all Malaysians! MCSIM members recruitment is now open! &lt;Benefits of becoming a MCSIM member&gt; 1. Meet a lot of new Malaysian friends! 2. Exclusive interesting upcoming events which are only open to MCSIM members! 3. You will be able to join MCSIM Member's Telegram group via invite link! Sign up through the QR code or click on this link: https://tinyurl.com/MCSIMmember What are you waiting for? Join us and be a part of the MCSIM family! 2. SIM Board Games Society game session and recruitment April 2021 Board Games Society is back on campus! Upcoming Thursday 22 April 2021 (please do check with us weekly), from 12pm to 6pm! We are recruiting subcommittee members as well! Sign Up Link in the QR code! We look forward to see you there~ 3. SIM Photography Club Portrait Workshop 23 April 2021 Portraits are not just about taking people's faces but capturing emotional and impressive photos of your models. Join our Portrait Workshop this April to know how you can do it. Also, for all participants going for the portrait workshop! You will be getting a benefit! There will be a PHOTOWALK OPPORTUNITY JUST FOR YOU. Best of all, the PRIORITY GOES TO YOU!!!! So do join us and reverse ur Photowalk position with us (especially the one at Gardens by the bay)!!!!! DO NOTE! There are very limited slots for the on-campus workshop. If you are able to snatch up a physical slot you will be entitled to a FREE GIFT! Details: Portrait workshop Speaker: JiaMin @_sherleenang Date: 23 April 2021 Time: 7.30pm to 9.30pm Venue: SIM Campus and Zoom Free workshop for all SIM Students!!! SIGN UP NOW: https://survey.sim.edu.sg/simge/index.php/survey/index/sid/563949/ #portrait #photography #tutorial #workshop 4. SIM Photography Club Nature &amp; Portrait Photowalk 24 April 2021 This April, SIM Photography Club launch a PHOTOWALK for all those who want to apply the knowledge of photography or just have interests in taking photos. There will be a chance for you to not only practice as well as express the creativity through your own photos, but also connect with our EXCOs for guidance and others who have the same interests. Do note that priority for a spot in the photowalk goes to those who attend our portrait workshop (see more details in our IG Bio: @simphotographyclub) Details: April Photowalk 2021 Location: Gardens by the Bay Date: 24/04/2021 Time: 2pm-6pm Main concept: Portrait &amp; Nature Fee: $20 ($10 refundable at the end of the photowalk and $10 non-refundable registration fee) REGISTRATION CLOSES ON 14th APRIL 2021, 12.00PM!!! There are also $30 worth of vouchers to be won! So do your best during the photowalk! NOTICE: $10 fee will be refunded on the day you attend for the event (as $10 registration fee). For those who do not turn up, the fee will not be refunded. Finally, the photowalk reservation is recorded only when the payment is confirmed. ONE MORE: Extremely Limited slots (First come first serve and priority goes to those who attend our portrait workshop!). SIGN UP (hurry)!!! Link: https://survey.sim.edu.sg/simge/index.php/survey/index/sid/392341/ 5. SIM String Ensemble Auditions 2021 To know more about our upcoming events, please visit: https://project1095.simge.edu.sg/events/ Don't forget to 'Like' our SIM GE Student Development Facebook page: https://www.facebook.com/SIMGEstudentlife/ Message brought to you by SIM Student Development This is a system generated message. Do not reply to this email.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>'20210416151321105mcsim.png'</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Job/Internship Opportunities and Career Events Brought to You by Career
+ Connect!  </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>-
+Powered By Symplicity</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Download Our App</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[body]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>New and Trending Jobs</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>sim@csm.symplicity.com</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jobs</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="tekkwang1996@gmail.com" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="yygoh010@mymail.sim.edu.sg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mtlmh0304@gmail.com" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13742,4 +13743,777 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email Subject</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name and Email Address</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Email Content</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Listing</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Attachment</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ml Result</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Function Result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>&lt;广告&gt; 《王者荣耀》西施冬冠 FMVP 皮肤“游龙清影”上线</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App Store &lt;appstore@insideapple.apple.com&gt;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>App Store
+首周开启七折优惠，立即查看 &gt;
+夏末临秋，峡谷热潮不减，新装西施惊艳出场。
+立即出发
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9V7m1S6z8
+更多热门游戏重磅更新
+漫威无限
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9p9m2b8u9
+人气漫画更新，特惠升级会员
+FIFA 足球世界
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9p3X8z8H4
+TOTS 21 赛季最佳系列活动
+灌篮高手
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9p9K0s1A5
+新球员"伍代友和"登场
+部分内容要求使用特定硬件或软件。需要互联网连接；可能会收取数据流量费用。内容价格及供应情况可能会发生变化。
+版权所有 © 2021 Apple Distribution International Ltd., Hollyhill Industrial Estate, Hollyhill, Cork, Republic of Ireland
+如果您不想收到来自我们的电子邮件，或者更改了您的电子邮件地址，请点击这里。
+隐私政策
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9V8P4S0q6
+条款和条件
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9V7R2c7y8
+技术支持
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9p5p8a3s8
+帐户
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9p9M5Z4K2
+订阅
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=BBzPxIjJBh9wMQmWtllnjCbOrXKhiWodtyz%2FK7GQlKBxqVbZeG69T7OqrJ3UuDhBN00vJyBZ%2Fw%2FTOYN3FsD7tlVns%2BxwVWxXkcrD0IjpMGPXzyfvZVwyl%2FeL9oMbJyuz&amp;ct=a9V8r056w0
+取消订阅
+https://mynews.apple.com/subscriptions?v=2&amp;la=zh_cn&amp;a=NCXPtKq%2B9pZJ9SuW%2BXz2iwAaVIOYDfZaNcG2QuvoBaWnL9OzzchV09Trr6hEGBqQTCfk4hETe3LT%2BbGLMtDDkcZr44MAD7SlzMInSSFBo%2Fs9IHNfwE3cFDph%2BkdcbtLteTCK%2B2Rn8%2BIk3yyGV49rh6fKZUmlIyomxYrx3yeXRTLDBGSg67eBK7Lo3bKmbw6m7nPxKhWxIk1RM%2FTor%2FvylQ%3D%3D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Make your Shangri-La experiences more rewarding</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"Shangri-La's Golden Circle" &lt;goldencircle.mkt@e.shangri-la.com&gt;</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Make your Shangri-La experiences more rewarding Start your fulfilling journey with Golden Circle View in browser FIND A HOTEL RATES &amp; RESERVATIONS PLAN AN EVENT Make your Shangri-La experiences more rewarding Dear Mr Liang, Thank you for staying with Shangri-La recently. To make your visits with us even more rewarding, enjoy our exclusive offers and privileges once you join Golden Circle. You can start earning Golden Circle Award Points when you stay, dine or enjoy a treatment at Chi, The Spa at any Shangri-La hotel, resort, Kerry hotel, JEN hotel or Traders hotel worldwide. With Golden Circle Award Points, you can redeem room awards, dining and spa vouchers and more. You can also convert your Golden Circle Award Points into airline miles. Join Golden Circle today and unlock a world of benefits, rewards and privileges. Join Now Terms &amp; Conditions apply. Download the Shangri-La App PRIVACY POLICY UNSUBSCRIBE ©2021 Shangri-La International Hotel Management Limited. All Rights Reserved. Please do not reply to this e-mail. Contact us at golden.circle@shangri-la.com , call (852) 3069 9688 or our 24-hour international toll-free numbers .</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>71.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Get matched to more of what you like</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"KrisFlyer" &lt;singaporeair@email.singaporeair.com&gt;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Get matched to more of what you like Win 500 miles by simply telling us your interests Membership No: 8852459843 VIEW ON BROWSER TELL US WHAT YOU LIKE, AND EARN UP TO 500 MILES TELL US WHAT YOU LIKE, AND EARN UP TO 500 MILES Dear Mr Liang, Whether you are a foodie, adventure seeker, or connoisseur of the arts – we’d love to get you matched to more of what you like. Simply tell us your interests to get first dibs on promotions and experiences centred around your preferences and hobbies. What’s more, from now till 1 September 2021, stand a chance to earn 500 miles* by doing just that when you update your KrisFlyer profile. Dear Mr Liang, Whether you are a foodie, adventure seeker, or connoisseur of the arts – we’d love to get you matched to more of what you like. Simply tell us your interests to get first dibs on promotions and experiences centred around your preferences and hobbies. What’s more, from now till 1 September 2021, stand a chance to earn 500 miles* by doing just that when you update your KrisFlyer profile. LEARN MORE *Each week during the promotion period, the first 800 members who have already subscribed to promotions from KrisFlyer and Singapore Airlines Group can earn 500 miles by simply updating their interests. Other Terms &amp; Conditions apply. *Each week during the promotion period, the first 800 members who have already subscribed to promotions from KrisFlyer and Singapore Airlines Group can earn 500 miles by simply updating their interests. Other Terms &amp; Conditions apply. Download SingaporeAir App Download Kris+ App Download SingaporeAir App Download Kris+ App Follow Privacy Policy Privacy Policy Unsubscribe Unsubscribe © 2021 Singapore Airlines. All Rights Reserved. Singapore Co. Reg. No. 197200078R. This is an automatically generated message. Please do not reply to this address. © 2021 Singapore Airlines. All Rights Reserved. Singapore Co. Reg. No. 197200078R. This is an automatically generated message. Please do not reply to this address.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>86.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ready to network with MBA admission reps?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The MBA Tour &lt;info@thembatour.com&gt;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Don't miss out on these exclusive event offerings!
+Don't miss out on these exclusive event offerings!
+Hi Minghao,
+The MBA Tour Singapore &amp; Malaysia (https://start.mba.com/e2t/sc2/MmZ-8yjYfmwW5rxgbM5hzwlsW8zKd2s7BrS1nVyPtgR8fc3bhdBzP8M04 )  is just one week away! Whether you are researching, applying, or just starting to explore your options, The MBA Tour is the perfect opportunity to network with admission representatives, alumni, and current students and get insider tips on how to improve your application.
+Don’t miss the event on August 12th to take advantage of our exclusive event offerings:
+- Get your resume reviewed by admissions experts from Copenhagen Business School
+- Join our opening keynote, How To Make Your Application Stand Out, hosted by RSM and Simon Fraser University
+- Icon+ will be providing a free diagnostic test to all attendees.
+- Jamboree Education will be offering 10% off on GMAT classes, GRE classes, and Admissions Counselling Packages and providing Flash Consulting Sessions.
+- And so much more!
+Register now (https://start.mba.com/e2t/sc2/MmZ-8yjYfmwW5rxgbM5hzwlsW8zKd2s7BrS1nVyPtgR8fc3bhdBzP8N04 )
+© 2021 Graduate Management Admission Council (GMAC). All rights reserved. Graduate Management Admission Council™ is a trademark of GMAC in the United States and other countries. The MBA Tour™ is a trademark of The MBA Tour, Inc. A subsidiary of GMAC.
+Our mailing address is:
+The MBA Tour
+73 Junction Square Dr
+Concord MA 01742-3049 USA
+Unsubscribe from all future emails (https://start.mba.com/hs/manage-preferences/unsubscribe-all?d=VnbTLM8wZR6LW3_-0sf3QzVF8W1X5cFf3zbV8YW3Fbt5q4SJBhnW15gBJz5rlptvW77WS206R-D5sW4NN-dh4QvMNNVWJQ7G5--QbPMXk_7Qbw7gsW2z1P5g3xyhqnW8KFhjM6tF04-3nTD2&amp;%3Bv=3&amp;_hsenc=p2ANqtz--3KCU_ZmIp_EVUk2V3esdDpCea6K7AcwIs3o4lV5MsZvZi-HPs8M0Yhzqwbrd_A9vaub5jBftZUESIs8xORtyd5n3Uzg&amp;_hsmi=137087972 )</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>New Release: Alibaba Cloud 7th Gen ECS at 20% Off| Superlative
+ Computing Performance with Enhanced Security</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alibaba Cloud &lt;newsletter@info.alibabacloud.com&gt;</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>* * | "Alibaba Cloud" "Homepage" |                 "Products" |                 "Console" |                 "Help" Powered by third-generation Intel® Xeon® Scalable processors (Ice Lake), our new 7th Gen ECS instances feature 40% higher computing power than previous generations . Fully equipped with TPM chips, it provides financial-level security ideal for building trusted environments. Visit our website to explore more about the performance upgrades of the 7th Gen ECS instances.
+Experience Now Key Features of 7th Gen ECS Instances
+*Increased instance computing power by up to 40%
+*High I/O and low network latency
+*Fully equipped with TPM chips
+*99.995% cross-zone multi-instance availability SLA Featured Industry Scenarios for ECS 7th Gen ECS Gen 7 for Finance
+Provides a trusted hosting environment for businesses requiring financial grade stability. ECS Gen 7 for Gaming
+Increases the overall project cost performance by 30% in online gaming use cases.
+Explore Solution Highlights and Scenario-Based Instance Types Webinar: Digital Innovations Transforming your Mega Sports Event Experience How do sports fanatics enjoy the games in times of the pandemic? From fans video hub to live broadcasting, learn in this upcoming webinar from our industry expert on how our sports solutions empower teams, athletes, and fans through cloud infrastructure, sports media and operation solution, professional services.
+Webinar Details:
+Date: 19 August, Thursday
+Time: 3pm, UTC+8
+Sign Up Now * * 
+Chat Now Need Help? Chat with Us Now!
+Live-chat with us and get immediate assistance, 1-on-1.   
+Or call us at +65 3163-8014 * * 
+Follow Alibaba Cloud on "Linkedin" "Facebook" "twitter" Alibaba.com Singapore E-Commerce Private Limited, Legal Department,
+c/o 26/F, Tower One, Times Square, 1 Matheson Street, Causeway Bay, Hong Kong
+www.alibabacloud.com © 2009-present www.alibabacloud.com. All rights reserved.
+This is a system message and please do not reply                                     
+Unsubscribe</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>87.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>How was your experience at Shangri-La Singapore?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>"Shangri-La Singapore" &lt;survey@trustyou.com&gt;</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TrustYou Survey - Shangri-La Singapore
+---
+Dear Mr.Ming Hao Liang,
+Thank you for choosing Shangri-La Singapore on your recent visit. 
+        Your Overall Experience Score                                                                                                                                                                                                                                            1                                                                                                                                                                                                                                                                        2                                                                                                                                                                                                                                                                        3                                                                                                                                                                                                                                                                        4                                                                                                                                                                                                                                                                        5                                                                                                                                                                                                                            
+           (1 = Poor, 2 = Fair, 3 = Good, 4 = Very Good, 5 = Excellent)
+Yours sincerely,
+Brian Yu
+Senior Vice President, Operations
+Shangri-La International Hotel Management Ltd.
+When you complete this survey, Shangri-La International Hotel Management Limited collects and uses your personal data, including your name, email address, opinions about your stay and your future preferences regarding our services.  We do this to evaluate your stay with us, and to continuously improve our products and services.  Our privacy policy sets out how we collect, use and disclose your personal data collected via this survey, the safeguards we have in place to protect it, and information about your rights as regards your personal data: please click here.  Shangri-La Hotels and Resorts respects the privacy of all its customers and business partners and treats personal data provided in this survey as confidential.  Your personal data from this survey will not be provided (except to our service providers who help us to administer this survey), or sold to any third party company or used for direct marketing.
+---
+If you do not wish to receive these survey request emails from us anymore, please click here: https://analytics.trustyou.com/surveys/site/unsubscribe?access_code=5c1c7bda-2c8d-419f-bbcf-9e5f72c51376&amp;survey_id=91115c6f-15e1-4683-9617-bc7435d2b17f
+Copyright © 2008-2021 TrustYou GmbH.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>98.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>&lt;广告&gt; 选购你想要的校园好装备。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Apple &lt;News_China@InsideApple.Apple.com&gt;</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>校园里，Apple 产品联手显实力。
+为高校生活购买 Mac 或 iPad，AirPods 搭配其中*。再配合其他 Apple 产品一起用，还可以体验更多强大功能，新学期轻松在握。
+-------------------
+Mac + iPhone
+你在 Mac 上启动的项目，可用 iPhone 随时随地继续；在 iPhone 上查看短信，用 Mac 也能回复；隔空投送文件到同学的设备上，也是毫不费力。妙用不止如此，等你来发掘。
+选购 MacBook Air
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9p5R424q5
+选购 iPhone 12
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V4z253s8
+-------------------
+iPad + Apple Pencil
+将手写字转成文本字发给同学，绘制精细的图形和图表，让课堂录音与自己的笔记同步，你想做的样样都拿手。
+选购 iPad Air
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V7X0Z4n5
+选购 Apple Pencil
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V4s9b8B5
+-------------------
+Mac + Apple Music
+好音乐，好好陪你用功。你可以收藏喜欢的歌，下载即可离线畅听。还可在各款 Apple 设备上同步音乐，律动你的高校生活。
+选购 MacBook Pro
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9p3m859D1
+进一步了解 Apple Music
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V7C957y0
+-------------------
+选用 Apple，理由越加越多。
+-------------------
+为高校生活购买 Mac 或 iPad，AirPods 搭配其中*。
+以教育优惠节省更多，还可八折加购 AppleCare+ 服务计划，再添妥帖保护(1)。
+立即选购
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V6N001E2
+-------------------
+Apple Trade In 换购计划
+轻松省更多(2)
+进一步了解
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V4m045x7
+-------------------
+协助选购
+与 Specialist 专家交流
+获取帮助
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V1v359E3
+-------------------
+在线选购
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V4Q2b8A4
+查找零售店
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9p3m3c2t1
+查找经销商
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V2J693n3
+400-666-8800
+获取 Apple Store App
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2Fq9QkffkGhpMrRopiSyiN1AD6y5Sjv3SBRClCjU86uN2VOdOQPm8JqoL263c9TGkqz5zj9HGu2YGsTFyelvd1zwtbthu9ilfKDy8X8%2BWv8nkpUs%2Bm8iicYVHjDASwumDuYFNq2tiHnhRTYf2m6FqWpI&amp;ct=a9V7t511u3
+-------------------
+* 有资格的购买人在规定的活动地点购买符合条件的 Mac 或 iPad，并搭配一副符合条件的 AirPods 时，可享促销优惠金额。购买每台符合条件的 Mac 或 iPad 时，每个有资格的购买人仅限购买一副 AirPods。优惠活动视供应状况而定。须遵守此处列出的条款和条件。
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V1D822z2
+1. 此项针对 AppleCare+ 服务计划推出的 Apple 教育优惠价格具有促销性质，仅在促销期间内适用于符合条件的产品，且不可与非促销性质的 Apple 教育优惠价格同时享受。在非促销期间为符合条件的产品加购 AppleCare+ 服务计划时，不可享受此促销价格。
+Apple 教育优惠价格。适用于在读以及新录取的高校学生及其家长，以及各级教师和教职员工。购买数量会有所限制。
+2. 实际折抵金额取决于设备的状况、配置、制造年份，以及发售国家或地区。在线换购和店内换购的折抵金额可能有所不同。年满 18 周岁及以上者才可参与本计划。该服务可能仅在部分 Apple Store 零售店提供，并且 Apple Store 零售店不提供电脑产品的折抵换购服务。并非所有设备都符合折抵换购条件。Apple 或其折抵服务合作伙伴保留出于任何原因拒绝或限制任何设备 (及其数量) 的权利。店内折抵需出示政府颁发并附有照片的有效身份证件 (当地法律可能会要求存储该信息)。现有设备的折抵金额可用于冲抵购买新的 Apple 设备。可能需要遵守 Apple 或 Apple 折抵服务合作伙伴的其他条款。详情请参阅 apple.com.cn/trade-in。
+Apple Music 需要订阅。
+-------------------
+商标及版权所有 © 2021 Apple Inc.
+-------------------
+保留所有权利
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9p3m649H1
+隐私政策
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9p0Q7S5q2
+我的 Apple ID
+https://c.apple.com/r?v=2&amp;la=zhs&amp;lc=chn&amp;a=z2%2Bnb8HWCoHziyJtbRYNxEJqOcwA12xbGoofYjHA7%2FrbRHOhG5Pkgn2chs5wNWuqawxeJWM8sYx1rVacFFF9yG9TdTD866DAhEZr5ek7W121uuHLKWmp725aHwh38lf1CqsH1ZXpCr0WjLaj%2BZqDfz5GkGzs9WULImmAHRCYsxAbrSDUd0gepVoNBkbS8Jb1Vr359156GdU6O6zkZCsPXZCp56n4Xi9R6CXFdGT2qS4%3D&amp;ct=a9V7K074w3
+-------------------
+如果你不想收到 Apple 的电子邮件广告，或者你变更了电子邮件地址，请点击这里。
+https://mynews.apple.com/subscriptions?v=2&amp;la=zh_cn&amp;a=5vxLEungeWHcWVj2h8j5xa3apcpMjhpg3Kordm8KmsyEobvN8GdL%2BXqcyCqxFYOnMDS2VEvjQ9DreJcnbCMRkzo9bZCbtor9NeogzlXPQrPN8d5CKbsrAhijr%2BBmVWhRN0Es0tjhDvapFHXEM5%2FI3tn2Zd5D%2B1AlR5oGnynBxKwc%2BPj3%2FeB%2FF9ZTEj9ykNLu
+-------------------</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Study the Intersection of Business and Law in Northwestern’s Master of Science in Law Program</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>"Northwestern Master of Science in Law" &lt;msl@northwestern.edu&gt;</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bring a new perspective to problem solving: Northwestern's Master of Science in Law
+As STEM industries increasingly take center stage in the world economy, there is a need for scientists, engineers, technologists, and other STEM professionals to understand and anticipate the legal, regulatory, and business implications of their work. Those with this interdisciplinary training will be best situated to make strong decisions and lead confidently into the future. 
+The Master of Science in Law , offered by the Northwestern Pritzker School of Law , is the first degree of its kind to focus on the intersection of STEM with law, business, and regulation. With practical courses focused on real world challenges confronting the STEM fields, the program empowers its graduates to better analyze and solve multi-faceted problems.
+One-of-a-Kind Curriculum The MSL curriculum is engaging, interdisciplinary, and completely distinctive -- there's nothing else like it! As an MSL student, you'll be part of the Northwestern Pritzker School of Law, and you will have the opportunity to learn from world-class professors who are recognized as experts in their fields. The skills and knowledge you gain in the MSL program will make you a more well-rounded and effective professional.
+Information Session Join us on August 11 at 5:30 PM CT for an information session, during which we will provide a comprehensive overview of the MSL program, including information about the MSL's unique courses, flexible program formats, and career advancement opportunities.  
+JOIN OUR INFORMATION SESSION JOIN OUR INFORMATION SESSION Warmly,
+Ashlee Hardgrave
+Admissions Manager, MSL Program
+Northwestern Pritzker School of Law
+ashlee.hardgrave@law.northwestern.edu
+Meet the MSL in 90 seconds "In considering graduate school options, I wanted a program that would help me differentiate my skillset in the de-siloed, modern corporate world. The MSL degree does just that -- it focuses on the interdisciplinary junction of law, business, and technology, while building upon the diverse STEM backgrounds of its students." 
+Alastair, MSL '20 Senior Consultant, Healthcare Strategy
+Guidehouse 
+We are contacting you as a result of your previous opt-in from the GMAT Search Service. If you would like to opt-out of further communication, click the "Unsubscribe" link below and you will be removed from the list.
+This email was sent to mtlmh0304@gmail.com by Northwestern Master of Science in Law.
+Unsubscribe from Northwestern Law.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>72.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Meet the Deans at Duke's Fuqua School of Business!</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>"Duke University's Fuqua School of Business" &lt;admissions-info@fuqua.duke.edu&gt;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Application Insights &amp; Tips | Schedule a Virtual Campus Visit
+Daytime MBA
+Hello, Minghao,
+You are invited to join the Fuqua admissions team for one of our upcoming virtual events.
+You will have the opportunity to chat with a member of the Admissions Team to learn more about our portfolio of programs , including our full-time Daytime MBA program , get insight into the admissions process, and learn what makes an application competitive.
+We look forward to chatting with you soon!
+Event Spotlight: Meet the Deans
+Join us on Monday, August 9 at 9:00 AM ET , for a casual conversation with leaders within our community, that reflect the Team Fuqua spirit across different departments. Take advantage of the opportunity to learn about what's new and different about Fuqua, new program developments, enhancements to the curriculum along with the many ways that we support Daytime students in their career pursuits.
+Register Upcoming Events
+Daytime MBA: Reapplicant Webinar Monday, August 9
+What Korean Applicants Should Know About Applying to Fuqua Tuesday, August 10
+What European Applicants Should Know About Applying to Fuqua Tuesday, August 10
+Daytime MBA: Admissions Insight and Application Tips Tuesday, August 10
+MBA Tour: Philippines Tuesday, August 10
+What Japanese Applicants Should Know About Applying to Fuqua Wednesday, August 11
+One MBA, Four Formats Wednesday, August 11
+What Southeast Asian Applicants Should Know About Applying to Fuqua Thursday, August 12
+What Canadian Applicants Should Know About Applying to Fuqua Thursday, August 12
+MBA Tour: Singapore/Malaysia Thursday, August 12
+MBA Tour: Brazil Tuesday, August 17
+Daytime MBA: Virtual Information Session Thursday, August 19
+Preparing for the Executive Assessment Test Thursday, August 19
+Forte Forum Thursday, August 19
+Daytime MBA: Admissions Insight and Application Tips Tuesday, August 24
+MBA Tour: Mexico Tuesday, August 24
+What Latin American Applicants Should Know About Applying to Fuqua Thursday, August 26
+Check our calendar for more events!
+Virtual Campus Visit
+Take part in a range of activities to help you learn more about the Daytime MBA program. As part of your virtual campus visit experience you may register for the following activities: Health Sector Management Discussion, Black &amp; Latino MBA Organization Discussion, Association of Women in Business Discussion, Center of Leadership &amp; Ethics (COLE) Student Chat, Group Office Hours with a member of the Admissions committee as well as informal group chats with current students.
+Schedule a Virtual Campus Visit For events, if you need a disability related accommodation, please contact: admissions-info@fuqua.duke.edu.
+When possible, please allow one week following your request to receive a response.
+Duke University's Fuqua School of Business
+100 Fuqua Drive, Durham, North Carolina 27708
+Please note: this is an automated process. The unsubscribe request should be made from the same e-mail address to which the communication was sent. Also, you may be receiving this email because you subscribed to the GMASS search service.
+© 2018 THE DUKE UNIVERSITY'S FUQUA SCHOOL OF BUSINESS * ALL RIGHTS RESERVED
+This email was sent to mtlmh0304@gmail.com by Duke University's Fuqua School of Business.
+Unsubscribe from Fuqua School of Business General Communications.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Get built-in tools with Heroku Postgres</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>"Heroku" &lt;no-reply@heroku.com&gt;</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Build data-driven apps with ease by installing a Heroku Postgres add-on.
+View in Browser
+https://hello.heroku.com/webmail/36622/1075981258/d10c39098efb22f39322ab236e8dd845e838e968cc1ec26e9f1020eaaf524b28
+---
+Hello,
+Thousands of developers rely on Heroku Postgres to manage their app data. Heroku Postgres is a fully-managed solution that gives you built-in tools to easily provision, scale, and manage databases for your Heroku apps.
+Install Heroku Postgres in one click and bypass the hassle of database setup and maintenance.
+(https://hello.heroku.com/e/36622/l-36622-2017-12-19-ffnjp7/lsn7jq/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A)
+Expert toolset for unleashing your data
+Heroku provides a range of features to help you ensure that you get the best performance from your Postgres data store. Here are a few:
+Forks
+Safely test and examine data without affecting production data.
+Followers
+Stay up to date with database changes using read-only replicas.
+Rollbacks
+Ensure data remains available in the case of catastrophic incidents.
+Dataclips
+Easily access, explore, and share data across your organization.
+---
+Install Heroku Postgres
+(https://hello.heroku.com/e/36622/l-36622-2017-12-19-ffnjp7/lsn7jq/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A)
+---
+Check out the docs (https://hello.heroku.com/e/36622/l-36622-2017-12-19-ffnkbh/lsn7js/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A) to learn more about Heroku Postgres, or learn more about Heroku\u2019s other managed data services (https://hello.heroku.com/e/36622/l-36622-2019-10-21-lrzf1s/lrzrhb/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A).
+Happy coding,
+The Heroku Team
+---
+Salesforce
+415 Mission Street, 3rd Floor
+San Francisco, CA 94105
+Update your email preferences
+https://hello.heroku.com/KeepMeuptoDate?ehash=d10c39098efb22f39322ab236e8dd845e838e968cc1ec26e9f1020eaaf524b28&amp;email_id=1075981258&amp;epc_hash=0-sqbwgFXbnuI3toAtWhfzCW5D52n8--NBX5CtisBVw
+Privacy
+https://hello.heroku.com/e/36622/company-privacy-/fdp75f/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A
+https://hello.heroku.com/e/36622/2020-07-01/lv16rx/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A
+https://hello.heroku.com/e/36622/heroku/fdp75k/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A
+https://hello.heroku.com/e/36622/heroku-/fdp75m/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A
+https://hello.heroku.com/e/36622/Heroku-/fdp75p/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A
+https://hello.heroku.com/e/36622/heroku/fdp75r/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A
+https://hello.heroku.com/e/36622/company-heroku/fdp75t/1075981258?h=oN4z96rYZatcAlr9glqDlcWCBTGdWwUxjJkMeLRJO_A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Suspicious</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Phishing</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Non-Phishing</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>